--- a/Civilworks cost/Spec for EMB PROT Works/Resources.xlsx
+++ b/Civilworks cost/Spec for EMB PROT Works/Resources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -765,7 +765,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -776,18 +776,18 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F10:F11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,7 +798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -809,7 +809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>102</v>
       </c>
@@ -820,7 +820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>103</v>
       </c>
@@ -831,7 +831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>104</v>
       </c>
@@ -842,7 +842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>201</v>
       </c>
@@ -853,7 +853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>202</v>
       </c>
@@ -864,7 +864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>203</v>
       </c>
@@ -875,7 +875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>204</v>
       </c>
@@ -886,7 +886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>205</v>
       </c>
@@ -897,7 +897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>206</v>
       </c>
@@ -908,7 +908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>207</v>
       </c>
@@ -919,7 +919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>301</v>
       </c>
@@ -930,7 +930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>401</v>
       </c>
@@ -951,17 +951,17 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="5">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I3" s="5">
         <v>350</v>
@@ -1122,7 +1122,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I4" s="5">
         <v>90</v>
@@ -1176,7 +1176,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1531,13 +1531,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="95" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1919,7 +1919,7 @@
       <c r="CP3" s="7"/>
       <c r="CQ3" s="7"/>
     </row>
-    <row r="4" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2017,7 +2017,7 @@
       <c r="CP4" s="7"/>
       <c r="CQ4" s="7"/>
     </row>
-    <row r="5" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2115,7 +2115,7 @@
       <c r="CP5" s="7"/>
       <c r="CQ5" s="7"/>
     </row>
-    <row r="6" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="CP6" s="7"/>
       <c r="CQ6" s="7"/>
     </row>
-    <row r="7" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2311,7 +2311,7 @@
       <c r="CP7" s="7"/>
       <c r="CQ7" s="7"/>
     </row>
-    <row r="8" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -2409,7 +2409,7 @@
       <c r="CP8" s="7"/>
       <c r="CQ8" s="7"/>
     </row>
-    <row r="9" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
@@ -2507,7 +2507,7 @@
       <c r="CP9" s="7"/>
       <c r="CQ9" s="7"/>
     </row>
-    <row r="10" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -2605,7 +2605,7 @@
       <c r="CP10" s="7"/>
       <c r="CQ10" s="7"/>
     </row>
-    <row r="11" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
@@ -2703,7 +2703,7 @@
       <c r="CP11" s="7"/>
       <c r="CQ11" s="7"/>
     </row>
-    <row r="12" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
@@ -2801,7 +2801,7 @@
       <c r="CP12" s="7"/>
       <c r="CQ12" s="7"/>
     </row>
-    <row r="13" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -2899,7 +2899,7 @@
       <c r="CP13" s="7"/>
       <c r="CQ13" s="7"/>
     </row>
-    <row r="14" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -2997,7 +2997,7 @@
       <c r="CP14" s="7"/>
       <c r="CQ14" s="7"/>
     </row>
-    <row r="15" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>

--- a/Civilworks cost/Spec for EMB PROT Works/Resources.xlsx
+++ b/Civilworks cost/Spec for EMB PROT Works/Resources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -481,6 +481,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,7 +766,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -775,19 +776,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,7 +799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -809,7 +810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>102</v>
       </c>
@@ -820,7 +821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>103</v>
       </c>
@@ -831,7 +832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>104</v>
       </c>
@@ -842,7 +843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>201</v>
       </c>
@@ -853,7 +854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>202</v>
       </c>
@@ -864,7 +865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>203</v>
       </c>
@@ -875,7 +876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>204</v>
       </c>
@@ -886,7 +887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>205</v>
       </c>
@@ -897,7 +898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>206</v>
       </c>
@@ -908,7 +909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>207</v>
       </c>
@@ -919,7 +920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>301</v>
       </c>
@@ -930,7 +931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>401</v>
       </c>
@@ -948,20 +949,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1013,8 +1014,9 @@
       <c r="Q1" s="6">
         <v>401</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1064,11 +1066,11 @@
         <v>20</v>
       </c>
       <c r="Q2" s="5">
-        <f t="shared" ref="Q2:Q10" si="0">P2*(250/100000)</f>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1118,11 +1120,11 @@
         <v>120</v>
       </c>
       <c r="Q3" s="5">
-        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1169,14 +1171,14 @@
         <v>0</v>
       </c>
       <c r="P4" s="5">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1226,11 +1228,11 @@
         <v>20</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1280,11 +1282,11 @@
         <v>30</v>
       </c>
       <c r="Q6" s="5">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1334,11 +1336,11 @@
         <v>30</v>
       </c>
       <c r="Q7" s="5">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1388,11 +1390,11 @@
         <v>30</v>
       </c>
       <c r="Q8" s="5">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1442,11 +1444,11 @@
         <v>150</v>
       </c>
       <c r="Q9" s="5">
-        <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1493,14 +1495,14 @@
         <v>0</v>
       </c>
       <c r="P10" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1531,13 +1533,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="95" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1821,7 +1823,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1919,7 +1921,7 @@
       <c r="CP3" s="7"/>
       <c r="CQ3" s="7"/>
     </row>
-    <row r="4" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2017,7 +2019,7 @@
       <c r="CP4" s="7"/>
       <c r="CQ4" s="7"/>
     </row>
-    <row r="5" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2115,7 +2117,7 @@
       <c r="CP5" s="7"/>
       <c r="CQ5" s="7"/>
     </row>
-    <row r="6" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2213,7 +2215,7 @@
       <c r="CP6" s="7"/>
       <c r="CQ6" s="7"/>
     </row>
-    <row r="7" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2311,7 +2313,7 @@
       <c r="CP7" s="7"/>
       <c r="CQ7" s="7"/>
     </row>
-    <row r="8" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -2409,7 +2411,7 @@
       <c r="CP8" s="7"/>
       <c r="CQ8" s="7"/>
     </row>
-    <row r="9" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
@@ -2507,7 +2509,7 @@
       <c r="CP9" s="7"/>
       <c r="CQ9" s="7"/>
     </row>
-    <row r="10" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -2605,7 +2607,7 @@
       <c r="CP10" s="7"/>
       <c r="CQ10" s="7"/>
     </row>
-    <row r="11" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
@@ -2703,7 +2705,7 @@
       <c r="CP11" s="7"/>
       <c r="CQ11" s="7"/>
     </row>
-    <row r="12" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
@@ -2801,7 +2803,7 @@
       <c r="CP12" s="7"/>
       <c r="CQ12" s="7"/>
     </row>
-    <row r="13" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -2899,7 +2901,7 @@
       <c r="CP13" s="7"/>
       <c r="CQ13" s="7"/>
     </row>
-    <row r="14" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -2997,7 +2999,7 @@
       <c r="CP14" s="7"/>
       <c r="CQ14" s="7"/>
     </row>
-    <row r="15" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>

--- a/Civilworks cost/Spec for EMB PROT Works/Resources.xlsx
+++ b/Civilworks cost/Spec for EMB PROT Works/Resources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,12 @@
     <sheet name="Allocation" sheetId="3" r:id="rId3"/>
     <sheet name="Main" sheetId="5" r:id="rId4"/>
     <sheet name="TYPE_A_281_M" sheetId="6" r:id="rId5"/>
-    <sheet name="FF_30M_at_KM_1" sheetId="7" r:id="rId6"/>
+    <sheet name="TYPE_A_40M" sheetId="8" r:id="rId6"/>
+    <sheet name="FF_15M_at_KM_35500" sheetId="12" r:id="rId7"/>
+    <sheet name="FF_15M_at_KM_4520" sheetId="11" r:id="rId8"/>
+    <sheet name="FF_30M_at_KM_1" sheetId="7" r:id="rId9"/>
+    <sheet name="FF_30M_at_KM_1_Backup" sheetId="9" r:id="rId10"/>
+    <sheet name="FF_30M_at_KM_1_Backup (2)" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="78">
   <si>
     <t>Code</t>
   </si>
@@ -141,13 +146,130 @@
   </si>
   <si>
     <t>FF_30M_at_KM_1_R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Mobilization and Site Preparation</t>
+  </si>
+  <si>
+    <t>CC Block Manufacture(30X30X30)-39933 Nos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      CC Block Manufacture(40X40X20)-8701 Nos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Embankment Construction-9880 cum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Placing Sand Filter-601 cum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Placing Geotextile Filter-6617 sqm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Placing Pea Gravel Filter-620 cum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Placing CC Block-1492 cum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Ancilary Work for Site Completion-1 LS</t>
+  </si>
+  <si>
+    <t>TYPE_A_40M</t>
+  </si>
+  <si>
+    <t>TYPE_A_40M_In_4500_R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      CC Block Manufacture(50X50X50)-1355 Nos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      CC Block Manufacture(50X50X30)-4795 Nos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      CC Block Manufacture(40X40X40)-1782 Nos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Ring Bundh construction (2052 cum)-1482 cum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Excavation-1192 cum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Embankment Construction-1082 cum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Placing Sand Filter-268 Cum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Placing Geotextile Filter-1838 sqm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Placing Pea Gravel Filter-357 cum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Placing CC Block-630 cum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Ring Bundh Removal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      CC Block Manufacture(30X30X30)-3917 Nos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      CC Block Manufacture(50X50X50)-2670 Nos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      CC Block Manufacture(40X40X40)-3653 Nos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      CC Block Manufacture(40X40X20)-2555 Nos</t>
+  </si>
+  <si>
+    <t>cement</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Excavation-2525 cum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Embankment Construction-1771 cum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Placing Sand Filter-361 Cum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Placing Geotextile Filter-2547 sqm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Placing Pea Gravel Filter-481 cum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Placing CC Block-630 cum/13673 Nos</t>
+  </si>
+  <si>
+    <t>FF_15M_at_KM_4520</t>
+  </si>
+  <si>
+    <t>FF_15M_at_KM_4520_R</t>
+  </si>
+  <si>
+    <t>FF_15M_at_KM_35500</t>
+  </si>
+  <si>
+    <t>FF_15M_at_KM_35500_R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +277,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF363636"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +310,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -193,11 +346,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,6 +384,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,12 +697,1927 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R21"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2">
+        <v>201</v>
+      </c>
+      <c r="J1" s="2">
+        <v>202</v>
+      </c>
+      <c r="K1" s="2">
+        <v>203</v>
+      </c>
+      <c r="L1" s="2">
+        <v>204</v>
+      </c>
+      <c r="M1" s="2">
+        <v>205</v>
+      </c>
+      <c r="N1" s="2">
+        <v>206</v>
+      </c>
+      <c r="O1" s="2">
+        <v>207</v>
+      </c>
+      <c r="P1" s="2">
+        <v>301</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>401</v>
+      </c>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="15">
+        <v>8</v>
+      </c>
+      <c r="C3" s="15">
+        <v>25</v>
+      </c>
+      <c r="D3" s="15">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>85</v>
+      </c>
+      <c r="I3" s="5">
+        <v>55</v>
+      </c>
+      <c r="J3" s="5">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="15">
+        <v>8</v>
+      </c>
+      <c r="C4" s="15">
+        <v>25</v>
+      </c>
+      <c r="D4" s="15">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>300</v>
+      </c>
+      <c r="I4" s="5">
+        <v>116</v>
+      </c>
+      <c r="J4" s="5">
+        <v>22</v>
+      </c>
+      <c r="K4" s="5">
+        <v>32</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="15">
+        <v>8</v>
+      </c>
+      <c r="C5" s="15">
+        <v>25</v>
+      </c>
+      <c r="D5" s="15">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>120</v>
+      </c>
+      <c r="I5" s="5">
+        <v>38</v>
+      </c>
+      <c r="J5" s="5">
+        <v>8</v>
+      </c>
+      <c r="K5" s="5">
+        <v>11</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="15">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>250</v>
+      </c>
+      <c r="I6" s="5">
+        <v>35</v>
+      </c>
+      <c r="J6" s="5">
+        <v>7</v>
+      </c>
+      <c r="K6" s="5">
+        <v>10</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="15">
+        <v>8</v>
+      </c>
+      <c r="C7" s="15">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="15">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="15">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15">
+        <v>21</v>
+      </c>
+      <c r="D9" s="15">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="15">
+        <v>25</v>
+      </c>
+      <c r="C10" s="15">
+        <v>32</v>
+      </c>
+      <c r="D10" s="15">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>39</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="15">
+        <v>33</v>
+      </c>
+      <c r="C11" s="15">
+        <v>40</v>
+      </c>
+      <c r="D11" s="15">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>263</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="15">
+        <v>40</v>
+      </c>
+      <c r="C12" s="15">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15">
+        <v>-21</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>51</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="15">
+        <v>57</v>
+      </c>
+      <c r="C13" s="15">
+        <v>64</v>
+      </c>
+      <c r="D13" s="15">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <v>1700</v>
+      </c>
+      <c r="P13" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="15">
+        <v>64</v>
+      </c>
+      <c r="C14" s="15">
+        <v>72</v>
+      </c>
+      <c r="D14" s="15">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C16" s="11">
+        <v>1355</v>
+      </c>
+      <c r="D16">
+        <f>C16/16</f>
+        <v>84.6875</v>
+      </c>
+      <c r="E16" s="1">
+        <f>85*0.5*0.5*0.5</f>
+        <v>10.625</v>
+      </c>
+      <c r="F16">
+        <f>E16/16.875</f>
+        <v>0.62962962962962965</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="11">
+        <v>4795</v>
+      </c>
+      <c r="D17">
+        <f>C17/16</f>
+        <v>299.6875</v>
+      </c>
+      <c r="E17" s="1">
+        <f>85*0.5*0.5*0.3</f>
+        <v>6.375</v>
+      </c>
+      <c r="F17">
+        <f>E17/16.875</f>
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="J17" s="13">
+        <v>15.005687500000001</v>
+      </c>
+      <c r="K17" s="13">
+        <v>31.77675</v>
+      </c>
+      <c r="L17" s="13">
+        <v>10.394528000000003</v>
+      </c>
+      <c r="M17" s="13">
+        <v>9.5330250000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="11">
+        <v>1782</v>
+      </c>
+      <c r="D18">
+        <f>C18/16</f>
+        <v>111.375</v>
+      </c>
+      <c r="E18" s="1">
+        <f>85*0.4*0.4*0.4</f>
+        <v>5.4400000000000013</v>
+      </c>
+      <c r="F18">
+        <f>E18/16.875</f>
+        <v>0.32237037037037047</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="11">
+        <v>3917</v>
+      </c>
+      <c r="D19">
+        <f>C19/16</f>
+        <v>244.8125</v>
+      </c>
+      <c r="E19" s="1">
+        <f>85*0.3*0.3*0.3</f>
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="F19">
+        <f>E19/16.875</f>
+        <v>0.13599999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <f>SUM(C16:C19)</f>
+        <v>11849</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <f>1838/7</f>
+        <v>262.57142857142856</v>
+      </c>
+      <c r="F21">
+        <f>268/7</f>
+        <v>38.285714285714285</v>
+      </c>
+      <c r="G21">
+        <f>357/7</f>
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T23"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2">
+        <v>201</v>
+      </c>
+      <c r="J1" s="2">
+        <v>202</v>
+      </c>
+      <c r="K1" s="2">
+        <v>203</v>
+      </c>
+      <c r="L1" s="2">
+        <v>204</v>
+      </c>
+      <c r="M1" s="2">
+        <v>205</v>
+      </c>
+      <c r="N1" s="2">
+        <v>206</v>
+      </c>
+      <c r="O1" s="2">
+        <v>207</v>
+      </c>
+      <c r="P1" s="2">
+        <v>301</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>401</v>
+      </c>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="17">
+        <f>P2*200</f>
+        <v>4000</v>
+      </c>
+      <c r="T2">
+        <f>S2/100000</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="15">
+        <v>8</v>
+      </c>
+      <c r="C3" s="15">
+        <v>25</v>
+      </c>
+      <c r="D3" s="15">
+        <v>17</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>168</v>
+      </c>
+      <c r="I3" s="14">
+        <v>108</v>
+      </c>
+      <c r="J3" s="14">
+        <v>10</v>
+      </c>
+      <c r="K3" s="14">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="17">
+        <f t="shared" ref="S3:S14" si="0">P3*200</f>
+        <v>7000</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T14" si="1">S3/100000</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="15">
+        <v>8</v>
+      </c>
+      <c r="C4" s="15">
+        <v>25</v>
+      </c>
+      <c r="D4" s="15">
+        <v>17</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1.35</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>300</v>
+      </c>
+      <c r="I4" s="14">
+        <v>116</v>
+      </c>
+      <c r="J4" s="14">
+        <v>11</v>
+      </c>
+      <c r="K4" s="14">
+        <v>22</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="17">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="15">
+        <v>8</v>
+      </c>
+      <c r="C5" s="15">
+        <v>25</v>
+      </c>
+      <c r="D5" s="15">
+        <v>17</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>230</v>
+      </c>
+      <c r="I5" s="14">
+        <v>76</v>
+      </c>
+      <c r="J5" s="14">
+        <v>7</v>
+      </c>
+      <c r="K5" s="14">
+        <v>14</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="17">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="15">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15">
+        <v>17</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>160</v>
+      </c>
+      <c r="I6" s="14">
+        <v>27</v>
+      </c>
+      <c r="J6" s="14">
+        <v>3</v>
+      </c>
+      <c r="K6" s="14">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="17">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="15">
+        <v>8</v>
+      </c>
+      <c r="C7" s="15">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="17">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="15">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="17">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="15">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15">
+        <v>21</v>
+      </c>
+      <c r="D9" s="15">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="17">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="15">
+        <v>25</v>
+      </c>
+      <c r="C10" s="15">
+        <v>32</v>
+      </c>
+      <c r="D10" s="15">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>52</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="17">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="15">
+        <v>33</v>
+      </c>
+      <c r="C11" s="15">
+        <v>40</v>
+      </c>
+      <c r="D11" s="15">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>363</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S11" s="17">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="15">
+        <v>40</v>
+      </c>
+      <c r="C12" s="15">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15">
+        <v>-21</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>69</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S12" s="17">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="15">
+        <v>57</v>
+      </c>
+      <c r="C13" s="15">
+        <v>64</v>
+      </c>
+      <c r="D13" s="15">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>2000</v>
+      </c>
+      <c r="P13" s="5">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S13" s="17">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="15">
+        <v>64</v>
+      </c>
+      <c r="C14" s="15">
+        <v>72</v>
+      </c>
+      <c r="D14" s="15">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="S14" s="17">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C16" s="11">
+        <v>2670</v>
+      </c>
+      <c r="D16">
+        <f>C16/16</f>
+        <v>166.875</v>
+      </c>
+      <c r="E16" s="1">
+        <f>D16*0.5*0.5*0.5</f>
+        <v>20.859375</v>
+      </c>
+      <c r="F16">
+        <f>E16/16.875</f>
+        <v>1.2361111111111112</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="11">
+        <v>4795</v>
+      </c>
+      <c r="D17">
+        <f>C17/16</f>
+        <v>299.6875</v>
+      </c>
+      <c r="E17" s="1">
+        <f>D17*0.5*0.5*0.3</f>
+        <v>22.4765625</v>
+      </c>
+      <c r="F17">
+        <f>E17/16.875</f>
+        <v>1.3319444444444444</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="13">
+        <v>107.01317256752446</v>
+      </c>
+      <c r="K17" s="13">
+        <v>115.34353929433775</v>
+      </c>
+      <c r="L17" s="13">
+        <v>75.132218306569527</v>
+      </c>
+      <c r="M17" s="13">
+        <v>26.247063163867086</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="11">
+        <v>3653</v>
+      </c>
+      <c r="D18">
+        <f>C18/16</f>
+        <v>228.3125</v>
+      </c>
+      <c r="E18" s="1">
+        <f>D18*0.4*0.4*0.4</f>
+        <v>14.612000000000002</v>
+      </c>
+      <c r="F18">
+        <f>E18/16.875</f>
+        <v>0.86589629629629639</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18">
+        <v>9.289337896486499</v>
+      </c>
+      <c r="K18">
+        <v>10.012460008189038</v>
+      </c>
+      <c r="L18">
+        <v>6.5218939502230491</v>
+      </c>
+      <c r="M18">
+        <v>2.2783908996412401</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="11">
+        <v>2555</v>
+      </c>
+      <c r="D19">
+        <f>C19/16</f>
+        <v>159.6875</v>
+      </c>
+      <c r="E19" s="1">
+        <f>D19*0.4*0.4*0.3</f>
+        <v>7.665</v>
+      </c>
+      <c r="F19">
+        <f>E19/16.875</f>
+        <v>0.45422222222222225</v>
+      </c>
+      <c r="G19" s="1">
+        <f>4-G16-G17-0.85</f>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="I19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19">
+        <v>20.376612160034902</v>
+      </c>
+      <c r="K19">
+        <v>21.962815501834022</v>
+      </c>
+      <c r="L19">
+        <v>14.306089955327977</v>
+      </c>
+      <c r="M19">
+        <v>4.9977606830840093</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <f>SUM(C16:C19)</f>
+        <v>13673</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <f>1838/7</f>
+        <v>262.57142857142856</v>
+      </c>
+      <c r="F21">
+        <f>268/7</f>
+        <v>38.285714285714285</v>
+      </c>
+      <c r="G21">
+        <f>357/7</f>
+        <v>51</v>
+      </c>
+      <c r="J21">
+        <f>361/7</f>
+        <v>51.571428571428569</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <f>2547/7</f>
+        <v>363.85714285714283</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <f>481/7</f>
+        <v>68.714285714285708</v>
+      </c>
+      <c r="K23">
+        <f>13673/7</f>
+        <v>1953.2857142857142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,12 +2792,12 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
@@ -1261,16 +3367,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1309,10 +3415,52 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>72</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1325,12 +3473,12 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
@@ -1902,13 +4050,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G15" sqref="G14:G15"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
@@ -1968,16 +4116,17 @@
       <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2-B2</f>
         <v>7</v>
       </c>
       <c r="E2" s="5">
@@ -2022,17 +4171,18 @@
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D10" si="0">C3-B3</f>
         <v>17</v>
-      </c>
-      <c r="B3" s="5">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5">
-        <v>16</v>
       </c>
       <c r="E3" s="5">
         <v>3</v>
@@ -2068,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="5">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="5">
         <v>0.3</v>
@@ -2076,20 +4226,21 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>25</v>
       </c>
-      <c r="D4" s="5">
-        <v>16</v>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="E4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -2098,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I4" s="5">
         <v>90</v>
@@ -2130,17 +4281,18 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2">
         <v>8</v>
       </c>
-      <c r="C5" s="5">
-        <v>41</v>
-      </c>
-      <c r="D5" s="5">
-        <v>34</v>
+      <c r="C5" s="2">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -2149,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
@@ -2184,17 +4336,18 @@
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5">
-        <v>10</v>
+      <c r="A6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -2238,17 +4391,18 @@
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5">
-        <v>51</v>
-      </c>
-      <c r="C7" s="5">
-        <v>60</v>
-      </c>
-      <c r="D7" s="5">
-        <v>10</v>
+      <c r="A7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -2292,17 +4446,18 @@
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="5">
-        <v>61</v>
-      </c>
-      <c r="C8" s="5">
-        <v>70</v>
-      </c>
-      <c r="D8" s="5">
-        <v>10</v>
+      <c r="A8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -2346,17 +4501,18 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5">
-        <v>71</v>
-      </c>
-      <c r="C9" s="5">
-        <v>80</v>
-      </c>
-      <c r="D9" s="5">
-        <v>10</v>
+      <c r="A9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2">
+        <v>79</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -2400,16 +4556,17 @@
       <c r="R9" s="4"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5">
-        <v>81</v>
-      </c>
-      <c r="C10" s="5">
-        <v>87</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="A10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2">
+        <v>79</v>
+      </c>
+      <c r="C10" s="2">
+        <v>86</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E10" s="5">
@@ -2474,4 +4631,2384 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2">
+        <v>201</v>
+      </c>
+      <c r="J1" s="2">
+        <v>202</v>
+      </c>
+      <c r="K1" s="2">
+        <v>203</v>
+      </c>
+      <c r="L1" s="2">
+        <v>204</v>
+      </c>
+      <c r="M1" s="2">
+        <v>205</v>
+      </c>
+      <c r="N1" s="2">
+        <v>206</v>
+      </c>
+      <c r="O1" s="2">
+        <v>207</v>
+      </c>
+      <c r="P1" s="2">
+        <v>301</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>401</v>
+      </c>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="15">
+        <v>8</v>
+      </c>
+      <c r="C3" s="15">
+        <v>25</v>
+      </c>
+      <c r="D3" s="15">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>85</v>
+      </c>
+      <c r="I3" s="5">
+        <v>55</v>
+      </c>
+      <c r="J3" s="5">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="15">
+        <v>8</v>
+      </c>
+      <c r="C4" s="15">
+        <v>25</v>
+      </c>
+      <c r="D4" s="15">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>300</v>
+      </c>
+      <c r="I4" s="5">
+        <v>116</v>
+      </c>
+      <c r="J4" s="5">
+        <v>22</v>
+      </c>
+      <c r="K4" s="5">
+        <v>32</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="15">
+        <v>8</v>
+      </c>
+      <c r="C5" s="15">
+        <v>25</v>
+      </c>
+      <c r="D5" s="15">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>120</v>
+      </c>
+      <c r="I5" s="5">
+        <v>38</v>
+      </c>
+      <c r="J5" s="5">
+        <v>8</v>
+      </c>
+      <c r="K5" s="5">
+        <v>11</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="15">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>250</v>
+      </c>
+      <c r="I6" s="5">
+        <v>35</v>
+      </c>
+      <c r="J6" s="5">
+        <v>7</v>
+      </c>
+      <c r="K6" s="5">
+        <v>10</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="15">
+        <v>8</v>
+      </c>
+      <c r="C7" s="15">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="15">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="15">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15">
+        <v>21</v>
+      </c>
+      <c r="D9" s="15">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="15">
+        <v>25</v>
+      </c>
+      <c r="C10" s="15">
+        <v>32</v>
+      </c>
+      <c r="D10" s="15">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>39</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="15">
+        <v>33</v>
+      </c>
+      <c r="C11" s="15">
+        <v>40</v>
+      </c>
+      <c r="D11" s="15">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>263</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="15">
+        <v>40</v>
+      </c>
+      <c r="C12" s="15">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15">
+        <v>-21</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>51</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="15">
+        <v>57</v>
+      </c>
+      <c r="C13" s="15">
+        <v>64</v>
+      </c>
+      <c r="D13" s="15">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <v>1700</v>
+      </c>
+      <c r="P13" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="15">
+        <v>64</v>
+      </c>
+      <c r="C14" s="15">
+        <v>72</v>
+      </c>
+      <c r="D14" s="15">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="11"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2">
+        <v>201</v>
+      </c>
+      <c r="J1" s="2">
+        <v>202</v>
+      </c>
+      <c r="K1" s="2">
+        <v>203</v>
+      </c>
+      <c r="L1" s="2">
+        <v>204</v>
+      </c>
+      <c r="M1" s="2">
+        <v>205</v>
+      </c>
+      <c r="N1" s="2">
+        <v>206</v>
+      </c>
+      <c r="O1" s="2">
+        <v>207</v>
+      </c>
+      <c r="P1" s="2">
+        <v>301</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>401</v>
+      </c>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="15">
+        <v>8</v>
+      </c>
+      <c r="C3" s="15">
+        <v>25</v>
+      </c>
+      <c r="D3" s="15">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>85</v>
+      </c>
+      <c r="I3" s="5">
+        <v>55</v>
+      </c>
+      <c r="J3" s="5">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="15">
+        <v>8</v>
+      </c>
+      <c r="C4" s="15">
+        <v>25</v>
+      </c>
+      <c r="D4" s="15">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>300</v>
+      </c>
+      <c r="I4" s="5">
+        <v>116</v>
+      </c>
+      <c r="J4" s="5">
+        <v>22</v>
+      </c>
+      <c r="K4" s="5">
+        <v>32</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="15">
+        <v>8</v>
+      </c>
+      <c r="C5" s="15">
+        <v>25</v>
+      </c>
+      <c r="D5" s="15">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>120</v>
+      </c>
+      <c r="I5" s="5">
+        <v>38</v>
+      </c>
+      <c r="J5" s="5">
+        <v>8</v>
+      </c>
+      <c r="K5" s="5">
+        <v>11</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="15">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>250</v>
+      </c>
+      <c r="I6" s="5">
+        <v>35</v>
+      </c>
+      <c r="J6" s="5">
+        <v>7</v>
+      </c>
+      <c r="K6" s="5">
+        <v>10</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="15">
+        <v>8</v>
+      </c>
+      <c r="C7" s="15">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="15">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="15">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15">
+        <v>21</v>
+      </c>
+      <c r="D9" s="15">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="15">
+        <v>25</v>
+      </c>
+      <c r="C10" s="15">
+        <v>32</v>
+      </c>
+      <c r="D10" s="15">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>39</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="15">
+        <v>33</v>
+      </c>
+      <c r="C11" s="15">
+        <v>40</v>
+      </c>
+      <c r="D11" s="15">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>263</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="15">
+        <v>40</v>
+      </c>
+      <c r="C12" s="15">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15">
+        <v>-21</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>51</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="15">
+        <v>57</v>
+      </c>
+      <c r="C13" s="15">
+        <v>64</v>
+      </c>
+      <c r="D13" s="15">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <v>1700</v>
+      </c>
+      <c r="P13" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="15">
+        <v>64</v>
+      </c>
+      <c r="C14" s="15">
+        <v>72</v>
+      </c>
+      <c r="D14" s="15">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="11"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="50.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2">
+        <v>201</v>
+      </c>
+      <c r="J1" s="2">
+        <v>202</v>
+      </c>
+      <c r="K1" s="2">
+        <v>203</v>
+      </c>
+      <c r="L1" s="2">
+        <v>204</v>
+      </c>
+      <c r="M1" s="2">
+        <v>205</v>
+      </c>
+      <c r="N1" s="2">
+        <v>206</v>
+      </c>
+      <c r="O1" s="2">
+        <v>207</v>
+      </c>
+      <c r="P1" s="2">
+        <v>301</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>401</v>
+      </c>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>8</v>
+      </c>
+      <c r="D2" s="15">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="15">
+        <v>8</v>
+      </c>
+      <c r="C3" s="15">
+        <v>25</v>
+      </c>
+      <c r="D3" s="15">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>168</v>
+      </c>
+      <c r="I3" s="5">
+        <v>108</v>
+      </c>
+      <c r="J3" s="5">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="15">
+        <v>8</v>
+      </c>
+      <c r="C4" s="15">
+        <v>25</v>
+      </c>
+      <c r="D4" s="15">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.35</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>300</v>
+      </c>
+      <c r="I4" s="5">
+        <v>116</v>
+      </c>
+      <c r="J4" s="5">
+        <v>11</v>
+      </c>
+      <c r="K4" s="5">
+        <v>22</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="15">
+        <v>8</v>
+      </c>
+      <c r="C5" s="15">
+        <v>25</v>
+      </c>
+      <c r="D5" s="15">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>230</v>
+      </c>
+      <c r="I5" s="5">
+        <v>76</v>
+      </c>
+      <c r="J5" s="5">
+        <v>7</v>
+      </c>
+      <c r="K5" s="5">
+        <v>14</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="15">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>160</v>
+      </c>
+      <c r="I6" s="5">
+        <v>27</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="15">
+        <v>8</v>
+      </c>
+      <c r="C7" s="15">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="15">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="15">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15">
+        <v>21</v>
+      </c>
+      <c r="D9" s="15">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="15">
+        <v>25</v>
+      </c>
+      <c r="C10" s="15">
+        <v>32</v>
+      </c>
+      <c r="D10" s="15">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>52</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="15">
+        <v>33</v>
+      </c>
+      <c r="C11" s="15">
+        <v>40</v>
+      </c>
+      <c r="D11" s="15">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>363</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="15">
+        <v>40</v>
+      </c>
+      <c r="C12" s="15">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15">
+        <v>-21</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>69</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="15">
+        <v>57</v>
+      </c>
+      <c r="C13" s="15">
+        <v>64</v>
+      </c>
+      <c r="D13" s="15">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>2000</v>
+      </c>
+      <c r="P13" s="5">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="15">
+        <v>64</v>
+      </c>
+      <c r="C14" s="15">
+        <v>72</v>
+      </c>
+      <c r="D14" s="15">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="11"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="11"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="11"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D23" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Civilworks cost/Spec for EMB PROT Works/Resources.xlsx
+++ b/Civilworks cost/Spec for EMB PROT Works/Resources.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Resource_List" sheetId="2" r:id="rId2"/>
     <sheet name="Allocation" sheetId="3" r:id="rId3"/>
     <sheet name="Main" sheetId="5" r:id="rId4"/>
-    <sheet name="TYPE_A_281_M" sheetId="6" r:id="rId5"/>
-    <sheet name="TYPE_A_40M" sheetId="8" r:id="rId6"/>
-    <sheet name="FF_15M_at_KM_35500" sheetId="12" r:id="rId7"/>
-    <sheet name="FF_15M_at_KM_4520" sheetId="11" r:id="rId8"/>
-    <sheet name="FF_30M_at_KM_1" sheetId="7" r:id="rId9"/>
-    <sheet name="FF_30M_at_KM_1_Backup" sheetId="9" r:id="rId10"/>
-    <sheet name="FF_30M_at_KM_1_Backup (2)" sheetId="10" r:id="rId11"/>
+    <sheet name="Type_A_211M_724_To_935_R" sheetId="6" r:id="rId5"/>
+    <sheet name="Type_A_50M_965_TO_1015_R" sheetId="15" r:id="rId6"/>
+    <sheet name="Type_A_40M_4500_TO_4570_R" sheetId="14" r:id="rId7"/>
+    <sheet name="Type_A_40M_35020_TO_35100_R" sheetId="13" r:id="rId8"/>
+    <sheet name="TYPE_A_40M" sheetId="8" r:id="rId9"/>
+    <sheet name="FF_15M_at_KM_35500" sheetId="12" r:id="rId10"/>
+    <sheet name="FF_15M_at_KM_4520" sheetId="11" r:id="rId11"/>
+    <sheet name="FF_30M_at_KM_1" sheetId="7" r:id="rId12"/>
+    <sheet name="FF_30M_at_KM_1_Backup" sheetId="9" r:id="rId13"/>
+    <sheet name="FF_30M_at_KM_1_Backup (2)" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="78">
   <si>
     <t>Code</t>
   </si>
@@ -136,13 +139,7 @@
     <t>Allocation_Sheet_Name</t>
   </si>
   <si>
-    <t>TYPE_A_281_M</t>
-  </si>
-  <si>
     <t>FF_30M_at_KM_1</t>
-  </si>
-  <si>
-    <t>TYPE_A_281_M_R</t>
   </si>
   <si>
     <t>FF_30M_at_KM_1_R</t>
@@ -173,12 +170,6 @@
   </si>
   <si>
     <t xml:space="preserve">   Ancilary Work for Site Completion-1 LS</t>
-  </si>
-  <si>
-    <t>TYPE_A_40M</t>
-  </si>
-  <si>
-    <t>TYPE_A_40M_In_4500_R</t>
   </si>
   <si>
     <t xml:space="preserve">      CC Block Manufacture(50X50X50)-1355 Nos</t>
@@ -264,6 +255,18 @@
   <si>
     <t>FF_15M_at_KM_35500_R</t>
   </si>
+  <si>
+    <t>Type_A_50M_965_TO_1015_R</t>
+  </si>
+  <si>
+    <t>Type_A_40M_4500_TO_4570_R</t>
+  </si>
+  <si>
+    <t>Type_A_40M_35020_TO_35100_R</t>
+  </si>
+  <si>
+    <t>Type_A_211M_724_To_935_R</t>
+  </si>
 </sst>
 </file>
 
@@ -323,7 +326,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -361,11 +364,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,6 +422,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,6 +722,2386 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2">
+        <v>201</v>
+      </c>
+      <c r="J1" s="2">
+        <v>202</v>
+      </c>
+      <c r="K1" s="2">
+        <v>203</v>
+      </c>
+      <c r="L1" s="2">
+        <v>204</v>
+      </c>
+      <c r="M1" s="2">
+        <v>205</v>
+      </c>
+      <c r="N1" s="2">
+        <v>206</v>
+      </c>
+      <c r="O1" s="2">
+        <v>207</v>
+      </c>
+      <c r="P1" s="2">
+        <v>301</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>401</v>
+      </c>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="15">
+        <v>8</v>
+      </c>
+      <c r="C3" s="15">
+        <v>25</v>
+      </c>
+      <c r="D3" s="15">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>85</v>
+      </c>
+      <c r="I3" s="5">
+        <v>55</v>
+      </c>
+      <c r="J3" s="5">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="15">
+        <v>8</v>
+      </c>
+      <c r="C4" s="15">
+        <v>25</v>
+      </c>
+      <c r="D4" s="15">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>300</v>
+      </c>
+      <c r="I4" s="5">
+        <v>116</v>
+      </c>
+      <c r="J4" s="5">
+        <v>22</v>
+      </c>
+      <c r="K4" s="5">
+        <v>32</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="15">
+        <v>8</v>
+      </c>
+      <c r="C5" s="15">
+        <v>25</v>
+      </c>
+      <c r="D5" s="15">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>120</v>
+      </c>
+      <c r="I5" s="5">
+        <v>38</v>
+      </c>
+      <c r="J5" s="5">
+        <v>8</v>
+      </c>
+      <c r="K5" s="5">
+        <v>11</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="15">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>250</v>
+      </c>
+      <c r="I6" s="5">
+        <v>35</v>
+      </c>
+      <c r="J6" s="5">
+        <v>7</v>
+      </c>
+      <c r="K6" s="5">
+        <v>10</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="15">
+        <v>8</v>
+      </c>
+      <c r="C7" s="15">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="15">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="15">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15">
+        <v>21</v>
+      </c>
+      <c r="D9" s="15">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="15">
+        <v>25</v>
+      </c>
+      <c r="C10" s="15">
+        <v>32</v>
+      </c>
+      <c r="D10" s="15">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>39</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="15">
+        <v>33</v>
+      </c>
+      <c r="C11" s="15">
+        <v>40</v>
+      </c>
+      <c r="D11" s="15">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>263</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="15">
+        <v>40</v>
+      </c>
+      <c r="C12" s="15">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15">
+        <v>-21</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>51</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="15">
+        <v>57</v>
+      </c>
+      <c r="C13" s="15">
+        <v>64</v>
+      </c>
+      <c r="D13" s="15">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <v>1700</v>
+      </c>
+      <c r="P13" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="15">
+        <v>64</v>
+      </c>
+      <c r="C14" s="15">
+        <v>72</v>
+      </c>
+      <c r="D14" s="15">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="11"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2">
+        <v>201</v>
+      </c>
+      <c r="J1" s="2">
+        <v>202</v>
+      </c>
+      <c r="K1" s="2">
+        <v>203</v>
+      </c>
+      <c r="L1" s="2">
+        <v>204</v>
+      </c>
+      <c r="M1" s="2">
+        <v>205</v>
+      </c>
+      <c r="N1" s="2">
+        <v>206</v>
+      </c>
+      <c r="O1" s="2">
+        <v>207</v>
+      </c>
+      <c r="P1" s="2">
+        <v>301</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>401</v>
+      </c>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="15">
+        <v>8</v>
+      </c>
+      <c r="C3" s="15">
+        <v>25</v>
+      </c>
+      <c r="D3" s="15">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>85</v>
+      </c>
+      <c r="I3" s="5">
+        <v>55</v>
+      </c>
+      <c r="J3" s="5">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="15">
+        <v>8</v>
+      </c>
+      <c r="C4" s="15">
+        <v>25</v>
+      </c>
+      <c r="D4" s="15">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>300</v>
+      </c>
+      <c r="I4" s="5">
+        <v>116</v>
+      </c>
+      <c r="J4" s="5">
+        <v>22</v>
+      </c>
+      <c r="K4" s="5">
+        <v>32</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="15">
+        <v>8</v>
+      </c>
+      <c r="C5" s="15">
+        <v>25</v>
+      </c>
+      <c r="D5" s="15">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>120</v>
+      </c>
+      <c r="I5" s="5">
+        <v>38</v>
+      </c>
+      <c r="J5" s="5">
+        <v>8</v>
+      </c>
+      <c r="K5" s="5">
+        <v>11</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="15">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>250</v>
+      </c>
+      <c r="I6" s="5">
+        <v>35</v>
+      </c>
+      <c r="J6" s="5">
+        <v>7</v>
+      </c>
+      <c r="K6" s="5">
+        <v>10</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="15">
+        <v>8</v>
+      </c>
+      <c r="C7" s="15">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="15">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="15">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15">
+        <v>21</v>
+      </c>
+      <c r="D9" s="15">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="15">
+        <v>25</v>
+      </c>
+      <c r="C10" s="15">
+        <v>32</v>
+      </c>
+      <c r="D10" s="15">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>39</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="15">
+        <v>33</v>
+      </c>
+      <c r="C11" s="15">
+        <v>40</v>
+      </c>
+      <c r="D11" s="15">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>263</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="15">
+        <v>40</v>
+      </c>
+      <c r="C12" s="15">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15">
+        <v>-21</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>51</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="15">
+        <v>57</v>
+      </c>
+      <c r="C13" s="15">
+        <v>64</v>
+      </c>
+      <c r="D13" s="15">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <v>1700</v>
+      </c>
+      <c r="P13" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="15">
+        <v>64</v>
+      </c>
+      <c r="C14" s="15">
+        <v>72</v>
+      </c>
+      <c r="D14" s="15">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="11"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="50.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2">
+        <v>201</v>
+      </c>
+      <c r="J1" s="2">
+        <v>202</v>
+      </c>
+      <c r="K1" s="2">
+        <v>203</v>
+      </c>
+      <c r="L1" s="2">
+        <v>204</v>
+      </c>
+      <c r="M1" s="2">
+        <v>205</v>
+      </c>
+      <c r="N1" s="2">
+        <v>206</v>
+      </c>
+      <c r="O1" s="2">
+        <v>207</v>
+      </c>
+      <c r="P1" s="2">
+        <v>301</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>401</v>
+      </c>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>8</v>
+      </c>
+      <c r="D2" s="15">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="15">
+        <v>8</v>
+      </c>
+      <c r="C3" s="15">
+        <v>25</v>
+      </c>
+      <c r="D3" s="15">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>168</v>
+      </c>
+      <c r="I3" s="5">
+        <v>108</v>
+      </c>
+      <c r="J3" s="5">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="15">
+        <v>8</v>
+      </c>
+      <c r="C4" s="15">
+        <v>25</v>
+      </c>
+      <c r="D4" s="15">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.35</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>300</v>
+      </c>
+      <c r="I4" s="5">
+        <v>116</v>
+      </c>
+      <c r="J4" s="5">
+        <v>11</v>
+      </c>
+      <c r="K4" s="5">
+        <v>22</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="15">
+        <v>8</v>
+      </c>
+      <c r="C5" s="15">
+        <v>25</v>
+      </c>
+      <c r="D5" s="15">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>230</v>
+      </c>
+      <c r="I5" s="5">
+        <v>76</v>
+      </c>
+      <c r="J5" s="5">
+        <v>7</v>
+      </c>
+      <c r="K5" s="5">
+        <v>14</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="15">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>160</v>
+      </c>
+      <c r="I6" s="5">
+        <v>27</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="15">
+        <v>8</v>
+      </c>
+      <c r="C7" s="15">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="15">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="15">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15">
+        <v>21</v>
+      </c>
+      <c r="D9" s="15">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="15">
+        <v>25</v>
+      </c>
+      <c r="C10" s="15">
+        <v>32</v>
+      </c>
+      <c r="D10" s="15">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>52</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="15">
+        <v>33</v>
+      </c>
+      <c r="C11" s="15">
+        <v>40</v>
+      </c>
+      <c r="D11" s="15">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>363</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="15">
+        <v>40</v>
+      </c>
+      <c r="C12" s="15">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15">
+        <v>-21</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>69</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="15">
+        <v>57</v>
+      </c>
+      <c r="C13" s="15">
+        <v>64</v>
+      </c>
+      <c r="D13" s="15">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>2000</v>
+      </c>
+      <c r="P13" s="5">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="15">
+        <v>64</v>
+      </c>
+      <c r="C14" s="15">
+        <v>72</v>
+      </c>
+      <c r="D14" s="15">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="11"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="11"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="11"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D23" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -768,7 +3171,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
@@ -822,7 +3225,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" s="15">
         <v>8</v>
@@ -876,7 +3279,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" s="15">
         <v>8</v>
@@ -930,7 +3333,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" s="15">
         <v>8</v>
@@ -984,7 +3387,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B6" s="15">
         <v>8</v>
@@ -1038,7 +3441,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B7" s="15">
         <v>8</v>
@@ -1092,7 +3495,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B8" s="15">
         <v>16</v>
@@ -1146,7 +3549,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B9" s="15">
         <v>16</v>
@@ -1200,7 +3603,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B10" s="15">
         <v>25</v>
@@ -1254,7 +3657,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B11" s="15">
         <v>33</v>
@@ -1307,7 +3710,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B12" s="15">
         <v>40</v>
@@ -1360,7 +3763,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B13" s="15">
         <v>57</v>
@@ -1413,7 +3816,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B14" s="15">
         <v>64</v>
@@ -1569,7 +3972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
@@ -1641,7 +4044,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
@@ -1703,7 +4106,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B3" s="15">
         <v>8</v>
@@ -1765,7 +4168,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" s="15">
         <v>8</v>
@@ -1827,7 +4230,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B5" s="15">
         <v>8</v>
@@ -1889,7 +4292,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B6" s="15">
         <v>8</v>
@@ -1951,7 +4354,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B7" s="15">
         <v>8</v>
@@ -2013,7 +4416,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B8" s="15">
         <v>16</v>
@@ -2075,7 +4478,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B9" s="15">
         <v>16</v>
@@ -2137,7 +4540,7 @@
     </row>
     <row r="10" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B10" s="15">
         <v>25</v>
@@ -2199,7 +4602,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B11" s="15">
         <v>33</v>
@@ -2260,7 +4663,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B12" s="15">
         <v>40</v>
@@ -2321,7 +4724,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B13" s="15">
         <v>57</v>
@@ -2382,7 +4785,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B14" s="15">
         <v>64</v>
@@ -2481,7 +4884,7 @@
         <v>1.35</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J17" s="13">
         <v>107.01317256752446</v>
@@ -2516,7 +4919,7 @@
         <v>0.85</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J18">
         <v>9.289337896486499</v>
@@ -2552,7 +4955,7 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J19">
         <v>20.376612160034902</v>
@@ -3367,10 +5770,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3380,88 +5783,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>87</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>87</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>87</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>87</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C7" s="2">
         <v>72</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>86</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="C8" s="2">
         <v>72</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>72</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3473,7 +5914,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4051,12 +6492,12 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
@@ -4116,17 +6557,16 @@
       <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <f>C2-B2</f>
+      <c r="C2" s="5">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
         <v>7</v>
       </c>
       <c r="E2" s="5">
@@ -4171,18 +6611,17 @@
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>25</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D10" si="0">C3-B3</f>
-        <v>17</v>
+      <c r="D3" s="5">
+        <v>16</v>
       </c>
       <c r="E3" s="5">
         <v>3</v>
@@ -4218,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="Q3" s="5">
         <v>0.3</v>
@@ -4226,21 +6665,20 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>25</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="D4" s="5">
+        <v>16</v>
       </c>
       <c r="E4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -4249,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I4" s="5">
         <v>90</v>
@@ -4281,18 +6719,17 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
-        <v>39</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>31</v>
+      <c r="C5" s="5">
+        <v>41</v>
+      </c>
+      <c r="D5" s="5">
+        <v>34</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -4301,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
@@ -4336,18 +6773,17 @@
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="2">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -4391,18 +6827,17 @@
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="2">
-        <v>48</v>
-      </c>
-      <c r="C7" s="2">
-        <v>59</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5">
+        <v>51</v>
+      </c>
+      <c r="C7" s="5">
+        <v>60</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -4446,18 +6881,17 @@
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="2">
-        <v>58</v>
-      </c>
-      <c r="C8" s="2">
-        <v>69</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5">
+        <v>61</v>
+      </c>
+      <c r="C8" s="5">
+        <v>70</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -4501,18 +6935,17 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="2">
-        <v>68</v>
-      </c>
-      <c r="C9" s="2">
-        <v>79</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5">
+        <v>71</v>
+      </c>
+      <c r="C9" s="5">
+        <v>80</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -4556,17 +6989,16 @@
       <c r="R9" s="4"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="2">
-        <v>79</v>
-      </c>
-      <c r="C10" s="2">
-        <v>86</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5">
+        <v>81</v>
+      </c>
+      <c r="C10" s="5">
+        <v>87</v>
+      </c>
+      <c r="D10" s="5">
         <v>7</v>
       </c>
       <c r="E10" s="5">
@@ -4635,15 +7067,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
@@ -4703,16 +7135,16 @@
       <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="12">
-        <v>8</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="C2" s="5">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
         <v>7</v>
       </c>
       <c r="E2" s="5">
@@ -4751,26 +7183,26 @@
       <c r="P2" s="5">
         <v>20</v>
       </c>
-      <c r="Q2" s="9">
-        <v>0.04</v>
+      <c r="Q2" s="5">
+        <v>0.05</v>
       </c>
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="15">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5">
         <v>8</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="5">
         <v>25</v>
       </c>
-      <c r="D3" s="15">
-        <v>17</v>
+      <c r="D3" s="5">
+        <v>16</v>
       </c>
       <c r="E3" s="5">
-        <v>0.63</v>
+        <v>3</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -4779,16 +7211,16 @@
         <v>0</v>
       </c>
       <c r="H3" s="5">
-        <v>85</v>
+        <v>2500</v>
       </c>
       <c r="I3" s="5">
-        <v>55</v>
+        <v>350</v>
       </c>
       <c r="J3" s="5">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="K3" s="5">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="L3" s="5">
         <v>0</v>
@@ -4803,28 +7235,28 @@
         <v>0</v>
       </c>
       <c r="P3" s="5">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>3.5999999999999997E-2</v>
+        <v>120</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.3</v>
       </c>
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="15">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
         <v>8</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="5">
         <v>25</v>
       </c>
-      <c r="D4" s="15">
-        <v>17</v>
+      <c r="D4" s="5">
+        <v>16</v>
       </c>
       <c r="E4" s="5">
-        <v>0.37</v>
+        <v>2</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -4833,16 +7265,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I4" s="5">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J4" s="5">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K4" s="5">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L4" s="5">
         <v>0</v>
@@ -4857,46 +7289,46 @@
         <v>0</v>
       </c>
       <c r="P4" s="5">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>2.4E-2</v>
+        <v>30</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="15">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5">
         <v>8</v>
       </c>
-      <c r="C5" s="15">
-        <v>25</v>
-      </c>
-      <c r="D5" s="15">
-        <v>17</v>
+      <c r="C5" s="5">
+        <v>41</v>
+      </c>
+      <c r="D5" s="5">
+        <v>34</v>
       </c>
       <c r="E5" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K5" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
@@ -4911,53 +7343,53 @@
         <v>0</v>
       </c>
       <c r="P5" s="5">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>0.03</v>
+        <v>20</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.05</v>
       </c>
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
         <v>61</v>
       </c>
-      <c r="B6" s="15">
-        <v>8</v>
-      </c>
-      <c r="C6" s="15">
-        <v>25</v>
-      </c>
-      <c r="D6" s="15">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>250</v>
-      </c>
-      <c r="I6" s="5">
-        <v>35</v>
-      </c>
-      <c r="J6" s="5">
-        <v>7</v>
-      </c>
-      <c r="K6" s="5">
-        <v>10</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
       <c r="N6" s="5">
         <v>0</v>
       </c>
@@ -4965,31 +7397,31 @@
         <v>0</v>
       </c>
       <c r="P6" s="5">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0.03</v>
+        <v>30</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="15">
-        <v>8</v>
-      </c>
-      <c r="C7" s="15">
-        <v>16</v>
-      </c>
-      <c r="D7" s="15">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="5">
+        <v>51</v>
+      </c>
+      <c r="C7" s="5">
+        <v>60</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -5007,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="5">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="M7" s="5">
         <v>0</v>
@@ -5019,31 +7451,31 @@
         <v>0</v>
       </c>
       <c r="P7" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0.12</v>
+        <v>30</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="15">
-        <v>16</v>
-      </c>
-      <c r="C8" s="15">
-        <v>21</v>
-      </c>
-      <c r="D8" s="15">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="5">
+        <v>61</v>
+      </c>
+      <c r="C8" s="5">
+        <v>70</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
@@ -5067,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="O8" s="5">
         <v>0</v>
@@ -5075,29 +7507,29 @@
       <c r="P8" s="5">
         <v>30</v>
       </c>
-      <c r="Q8" s="9">
-        <v>0.06</v>
+      <c r="Q8" s="5">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="15">
-        <v>16</v>
-      </c>
-      <c r="C9" s="15">
-        <v>21</v>
-      </c>
-      <c r="D9" s="15">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="5">
+        <v>71</v>
+      </c>
+      <c r="C9" s="5">
+        <v>80</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -5124,34 +7556,34 @@
         <v>0</v>
       </c>
       <c r="O9" s="5">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="P9" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0.06</v>
+        <v>150</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.375</v>
       </c>
       <c r="R9" s="4"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="15">
-        <v>25</v>
-      </c>
-      <c r="C10" s="15">
-        <v>32</v>
-      </c>
-      <c r="D10" s="15">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5">
+        <v>81</v>
+      </c>
+      <c r="C10" s="5">
+        <v>87</v>
+      </c>
+      <c r="D10" s="5">
         <v>7</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
       </c>
       <c r="F10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -5172,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="N10" s="5">
         <v>0</v>
@@ -5181,240 +7613,30 @@
         <v>0</v>
       </c>
       <c r="P10" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>0.12</v>
+        <v>20</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.05</v>
       </c>
       <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="15">
-        <v>33</v>
-      </c>
-      <c r="C11" s="15">
-        <v>40</v>
-      </c>
-      <c r="D11" s="15">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>263</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="15">
-        <v>40</v>
-      </c>
-      <c r="C12" s="15">
-        <v>19</v>
-      </c>
-      <c r="D12" s="15">
-        <v>-21</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10">
-        <v>51</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="15">
-        <v>57</v>
-      </c>
-      <c r="C13" s="15">
-        <v>64</v>
-      </c>
-      <c r="D13" s="15">
-        <v>7</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="10">
-        <v>1700</v>
-      </c>
-      <c r="P13" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="15">
-        <v>64</v>
-      </c>
-      <c r="C14" s="15">
-        <v>72</v>
-      </c>
-      <c r="D14" s="15">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0</v>
-      </c>
-      <c r="K14" s="10">
-        <v>0</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0</v>
-      </c>
-      <c r="O14" s="10">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C17" s="11"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="11"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5423,15 +7645,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
@@ -5491,16 +7713,16 @@
       <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="12">
-        <v>8</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="C2" s="5">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
         <v>7</v>
       </c>
       <c r="E2" s="5">
@@ -5539,26 +7761,26 @@
       <c r="P2" s="5">
         <v>20</v>
       </c>
-      <c r="Q2" s="9">
-        <v>0.04</v>
+      <c r="Q2" s="5">
+        <v>0.05</v>
       </c>
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="15">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5">
         <v>8</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="5">
         <v>25</v>
       </c>
-      <c r="D3" s="15">
-        <v>17</v>
+      <c r="D3" s="5">
+        <v>16</v>
       </c>
       <c r="E3" s="5">
-        <v>0.63</v>
+        <v>3</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -5567,16 +7789,16 @@
         <v>0</v>
       </c>
       <c r="H3" s="5">
-        <v>85</v>
+        <v>2500</v>
       </c>
       <c r="I3" s="5">
-        <v>55</v>
+        <v>350</v>
       </c>
       <c r="J3" s="5">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="K3" s="5">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="L3" s="5">
         <v>0</v>
@@ -5591,28 +7813,28 @@
         <v>0</v>
       </c>
       <c r="P3" s="5">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>3.5999999999999997E-2</v>
+        <v>120</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.3</v>
       </c>
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="15">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
         <v>8</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="5">
         <v>25</v>
       </c>
-      <c r="D4" s="15">
-        <v>17</v>
+      <c r="D4" s="5">
+        <v>16</v>
       </c>
       <c r="E4" s="5">
-        <v>0.37</v>
+        <v>2</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -5621,16 +7843,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I4" s="5">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J4" s="5">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K4" s="5">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L4" s="5">
         <v>0</v>
@@ -5645,46 +7867,46 @@
         <v>0</v>
       </c>
       <c r="P4" s="5">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>2.4E-2</v>
+        <v>30</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="15">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5">
         <v>8</v>
       </c>
-      <c r="C5" s="15">
-        <v>25</v>
-      </c>
-      <c r="D5" s="15">
-        <v>17</v>
+      <c r="C5" s="5">
+        <v>41</v>
+      </c>
+      <c r="D5" s="5">
+        <v>34</v>
       </c>
       <c r="E5" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K5" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
@@ -5699,53 +7921,53 @@
         <v>0</v>
       </c>
       <c r="P5" s="5">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>0.03</v>
+        <v>20</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.05</v>
       </c>
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
         <v>61</v>
       </c>
-      <c r="B6" s="15">
-        <v>8</v>
-      </c>
-      <c r="C6" s="15">
-        <v>25</v>
-      </c>
-      <c r="D6" s="15">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>250</v>
-      </c>
-      <c r="I6" s="5">
-        <v>35</v>
-      </c>
-      <c r="J6" s="5">
-        <v>7</v>
-      </c>
-      <c r="K6" s="5">
-        <v>10</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
       <c r="N6" s="5">
         <v>0</v>
       </c>
@@ -5753,31 +7975,31 @@
         <v>0</v>
       </c>
       <c r="P6" s="5">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0.03</v>
+        <v>30</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="15">
-        <v>8</v>
-      </c>
-      <c r="C7" s="15">
-        <v>16</v>
-      </c>
-      <c r="D7" s="15">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="5">
+        <v>51</v>
+      </c>
+      <c r="C7" s="5">
+        <v>60</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -5795,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="5">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="M7" s="5">
         <v>0</v>
@@ -5807,31 +8029,31 @@
         <v>0</v>
       </c>
       <c r="P7" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0.12</v>
+        <v>30</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="15">
-        <v>16</v>
-      </c>
-      <c r="C8" s="15">
-        <v>21</v>
-      </c>
-      <c r="D8" s="15">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="5">
+        <v>61</v>
+      </c>
+      <c r="C8" s="5">
+        <v>70</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
@@ -5855,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="O8" s="5">
         <v>0</v>
@@ -5863,29 +8085,29 @@
       <c r="P8" s="5">
         <v>30</v>
       </c>
-      <c r="Q8" s="9">
-        <v>0.06</v>
+      <c r="Q8" s="5">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="15">
-        <v>16</v>
-      </c>
-      <c r="C9" s="15">
-        <v>21</v>
-      </c>
-      <c r="D9" s="15">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="5">
+        <v>71</v>
+      </c>
+      <c r="C9" s="5">
+        <v>80</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -5912,34 +8134,34 @@
         <v>0</v>
       </c>
       <c r="O9" s="5">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="P9" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0.06</v>
+        <v>150</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.375</v>
       </c>
       <c r="R9" s="4"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="15">
-        <v>25</v>
-      </c>
-      <c r="C10" s="15">
-        <v>32</v>
-      </c>
-      <c r="D10" s="15">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5">
+        <v>81</v>
+      </c>
+      <c r="C10" s="5">
+        <v>87</v>
+      </c>
+      <c r="D10" s="5">
         <v>7</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
       </c>
       <c r="F10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -5960,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="N10" s="5">
         <v>0</v>
@@ -5969,240 +8191,30 @@
         <v>0</v>
       </c>
       <c r="P10" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>0.12</v>
+        <v>20</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.05</v>
       </c>
       <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="15">
-        <v>33</v>
-      </c>
-      <c r="C11" s="15">
-        <v>40</v>
-      </c>
-      <c r="D11" s="15">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>263</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="15">
-        <v>40</v>
-      </c>
-      <c r="C12" s="15">
-        <v>19</v>
-      </c>
-      <c r="D12" s="15">
-        <v>-21</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10">
-        <v>51</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="15">
-        <v>57</v>
-      </c>
-      <c r="C13" s="15">
-        <v>64</v>
-      </c>
-      <c r="D13" s="15">
-        <v>7</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="10">
-        <v>1700</v>
-      </c>
-      <c r="P13" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="15">
-        <v>64</v>
-      </c>
-      <c r="C14" s="15">
-        <v>72</v>
-      </c>
-      <c r="D14" s="15">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0</v>
-      </c>
-      <c r="K14" s="10">
-        <v>0</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0</v>
-      </c>
-      <c r="O14" s="10">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C17" s="11"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="11"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6211,16 +8223,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="50.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
@@ -6280,16 +8291,17 @@
       <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="15">
+      <c r="A2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="2">
         <v>8</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="2">
+        <f>C2-B2</f>
         <v>7</v>
       </c>
       <c r="E2" s="5">
@@ -6329,25 +8341,26 @@
         <v>20</v>
       </c>
       <c r="Q2" s="5">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="15">
+      <c r="A3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2">
         <v>8</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="2">
         <v>25</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D10" si="0">C3-B3</f>
         <v>17</v>
       </c>
       <c r="E3" s="5">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -6356,139 +8369,141 @@
         <v>0</v>
       </c>
       <c r="H3" s="5">
-        <v>168</v>
+        <v>2500</v>
       </c>
       <c r="I3" s="5">
-        <v>108</v>
+        <v>350</v>
       </c>
       <c r="J3" s="5">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K3" s="5">
+        <v>80</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>600</v>
+      </c>
+      <c r="I4" s="5">
+        <v>90</v>
+      </c>
+      <c r="J4" s="5">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5">
+        <v>18</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
         <v>20</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="15">
-        <v>8</v>
-      </c>
-      <c r="C4" s="15">
-        <v>25</v>
-      </c>
-      <c r="D4" s="15">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1.35</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>300</v>
-      </c>
-      <c r="I4" s="5">
-        <v>116</v>
-      </c>
-      <c r="J4" s="5">
-        <v>11</v>
-      </c>
-      <c r="K4" s="5">
-        <v>22</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="15">
-        <v>8</v>
-      </c>
-      <c r="C5" s="15">
-        <v>25</v>
-      </c>
-      <c r="D5" s="15">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>230</v>
-      </c>
-      <c r="I5" s="5">
-        <v>76</v>
-      </c>
-      <c r="J5" s="5">
-        <v>7</v>
-      </c>
-      <c r="K5" s="5">
-        <v>14</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
-        <v>25</v>
       </c>
       <c r="Q5" s="5">
         <v>0.05</v>
@@ -6496,20 +8511,21 @@
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="15">
-        <v>8</v>
-      </c>
-      <c r="C6" s="15">
-        <v>25</v>
-      </c>
-      <c r="D6" s="15">
-        <v>17</v>
+      <c r="A6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E6" s="5">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -6518,22 +8534,22 @@
         <v>0</v>
       </c>
       <c r="H6" s="5">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="5">
         <v>0</v>
       </c>
       <c r="M6" s="5">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N6" s="5">
         <v>0</v>
@@ -6542,31 +8558,32 @@
         <v>0</v>
       </c>
       <c r="P6" s="5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="5">
-        <v>0.03</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="15">
-        <v>8</v>
-      </c>
-      <c r="C7" s="15">
-        <v>16</v>
-      </c>
-      <c r="D7" s="15">
-        <v>8</v>
+      <c r="A7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -6584,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="5">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="M7" s="5">
         <v>0</v>
@@ -6599,137 +8616,140 @@
         <v>30</v>
       </c>
       <c r="Q7" s="5">
-        <v>0.06</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>62</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2">
         <v>68</v>
       </c>
-      <c r="B8" s="15">
-        <v>16</v>
-      </c>
-      <c r="C8" s="15">
-        <v>21</v>
-      </c>
-      <c r="D8" s="15">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="15">
-        <v>16</v>
-      </c>
-      <c r="C9" s="15">
-        <v>21</v>
-      </c>
-      <c r="D9" s="15">
-        <v>5</v>
+      <c r="C9" s="2">
+        <v>79</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
       </c>
       <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>5000</v>
+      </c>
+      <c r="P9" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2">
+        <v>79</v>
+      </c>
+      <c r="C10" s="2">
+        <v>86</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="15">
-        <v>25</v>
-      </c>
-      <c r="C10" s="15">
-        <v>32</v>
-      </c>
-      <c r="D10" s="15">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
       <c r="G10" s="5">
         <v>0</v>
       </c>
@@ -6749,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="N10" s="5">
         <v>0</v>
@@ -6758,257 +8778,32 @@
         <v>0</v>
       </c>
       <c r="P10" s="5">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="15">
-        <v>33</v>
-      </c>
-      <c r="C11" s="15">
-        <v>40</v>
-      </c>
-      <c r="D11" s="15">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>363</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="15">
-        <v>40</v>
-      </c>
-      <c r="C12" s="15">
-        <v>19</v>
-      </c>
-      <c r="D12" s="15">
-        <v>-21</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
-        <v>69</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
-        <v>70</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="15">
-        <v>57</v>
-      </c>
-      <c r="C13" s="15">
-        <v>64</v>
-      </c>
-      <c r="D13" s="15">
-        <v>7</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="5">
-        <v>2000</v>
-      </c>
-      <c r="P13" s="5">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="15">
-        <v>64</v>
-      </c>
-      <c r="C14" s="15">
-        <v>72</v>
-      </c>
-      <c r="D14" s="15">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C17" s="11"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="11"/>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="11"/>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D23" s="16"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Civilworks cost/Spec for EMB PROT Works/Resources.xlsx
+++ b/Civilworks cost/Spec for EMB PROT Works/Resources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="10" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -7648,7 +7648,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Civilworks cost/Spec for EMB PROT Works/Resources.xlsx
+++ b/Civilworks cost/Spec for EMB PROT Works/Resources.xlsx
@@ -4,23 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="10" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Resource_List" sheetId="2" r:id="rId2"/>
-    <sheet name="Allocation" sheetId="3" r:id="rId3"/>
-    <sheet name="Main" sheetId="5" r:id="rId4"/>
-    <sheet name="Type_A_211M_724_To_935_R" sheetId="6" r:id="rId5"/>
-    <sheet name="Type_A_50M_965_TO_1015_R" sheetId="15" r:id="rId6"/>
-    <sheet name="Type_A_40M_4500_TO_4570_R" sheetId="14" r:id="rId7"/>
-    <sheet name="Type_A_40M_35020_TO_35100_R" sheetId="13" r:id="rId8"/>
-    <sheet name="TYPE_A_40M" sheetId="8" r:id="rId9"/>
-    <sheet name="FF_15M_at_KM_35500" sheetId="12" r:id="rId10"/>
-    <sheet name="FF_15M_at_KM_4520" sheetId="11" r:id="rId11"/>
-    <sheet name="FF_30M_at_KM_1" sheetId="7" r:id="rId12"/>
-    <sheet name="FF_30M_at_KM_1_Backup" sheetId="9" r:id="rId13"/>
-    <sheet name="FF_30M_at_KM_1_Backup (2)" sheetId="10" r:id="rId14"/>
+    <sheet name="Type_B5_1165M_1015_TO_2180" sheetId="20" r:id="rId1"/>
+    <sheet name="Type_B5_1150M_9200_TO_10350" sheetId="19" r:id="rId2"/>
+    <sheet name="Type_B5_724M_0_TO_724" sheetId="18" r:id="rId3"/>
+    <sheet name="Rsec_3850M_25200_TO_38500" sheetId="17" r:id="rId4"/>
+    <sheet name="Rsec_850M_4600_TO_7800" sheetId="16" r:id="rId5"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId6"/>
+    <sheet name="Resource_List" sheetId="2" r:id="rId7"/>
+    <sheet name="Allocation" sheetId="3" r:id="rId8"/>
+    <sheet name="Main" sheetId="5" r:id="rId9"/>
+    <sheet name="Type_A_211M_724_To_935_R" sheetId="6" r:id="rId10"/>
+    <sheet name="Type_A_50M_965_TO_1015_R" sheetId="15" r:id="rId11"/>
+    <sheet name="Type_A_40M_4500_TO_4570_R" sheetId="14" r:id="rId12"/>
+    <sheet name="Type_A_40M_35020_TO_35100_R" sheetId="13" r:id="rId13"/>
+    <sheet name="TYPE_A_40M" sheetId="8" r:id="rId14"/>
+    <sheet name="FF_15M_at_KM_35500" sheetId="12" r:id="rId15"/>
+    <sheet name="FF_15M_at_KM_4520" sheetId="11" r:id="rId16"/>
+    <sheet name="FF_30M_at_KM_1" sheetId="7" r:id="rId17"/>
+    <sheet name="FF_30M_at_KM_1_Backup" sheetId="9" r:id="rId18"/>
+    <sheet name="FF_30M_at_KM_1_Backup (2)" sheetId="10" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="90">
   <si>
     <t>Code</t>
   </si>
@@ -267,12 +272,48 @@
   <si>
     <t>Type_A_211M_724_To_935_R</t>
   </si>
+  <si>
+    <t>Embankment Construction 3366 cum</t>
+  </si>
+  <si>
+    <t>Turfing 11722 sqm</t>
+  </si>
+  <si>
+    <t>Turfing 53230 sqm</t>
+  </si>
+  <si>
+    <t>Embankment Construction 15286 cum</t>
+  </si>
+  <si>
+    <t>Turfing 9842 sqm</t>
+  </si>
+  <si>
+    <t>Geo_Bags 3388 sqm</t>
+  </si>
+  <si>
+    <t>Geotextile Filter 11251 sqm</t>
+  </si>
+  <si>
+    <t>Embankment Construction 3495 cum</t>
+  </si>
+  <si>
+    <t>Embankment Construction 5551 cum</t>
+  </si>
+  <si>
+    <t>Geotextile Filter 17871 cum</t>
+  </si>
+  <si>
+    <t>Geo_Bags 5380 cum</t>
+  </si>
+  <si>
+    <t>Turfing 15632 cum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,21 +327,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF363636"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,14 +347,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -351,21 +373,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB1BBCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB1BBCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB1BBCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB1BBCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -381,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -416,20 +423,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,22 +712,3347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2">
+        <v>201</v>
+      </c>
+      <c r="J1" s="2">
+        <v>202</v>
+      </c>
+      <c r="K1" s="2">
+        <v>203</v>
+      </c>
+      <c r="L1" s="2">
+        <v>204</v>
+      </c>
+      <c r="M1" s="2">
+        <v>205</v>
+      </c>
+      <c r="N1" s="2">
+        <v>206</v>
+      </c>
+      <c r="O1" s="2">
+        <v>207</v>
+      </c>
+      <c r="P1" s="2">
+        <v>208</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>301</v>
+      </c>
+      <c r="R1" s="6">
+        <v>401</v>
+      </c>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>20</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>20</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="5">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>182</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>100</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="5">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="5">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>50</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5">
+        <v>64</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>20</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2">
+        <v>201</v>
+      </c>
+      <c r="J1" s="2">
+        <v>202</v>
+      </c>
+      <c r="K1" s="2">
+        <v>203</v>
+      </c>
+      <c r="L1" s="2">
+        <v>204</v>
+      </c>
+      <c r="M1" s="2">
+        <v>205</v>
+      </c>
+      <c r="N1" s="2">
+        <v>206</v>
+      </c>
+      <c r="O1" s="2">
+        <v>207</v>
+      </c>
+      <c r="P1" s="2">
+        <v>301</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>401</v>
+      </c>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>7</v>
+      </c>
+      <c r="D2" s="20">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="14">
+        <v>8</v>
+      </c>
+      <c r="C3" s="14">
+        <v>23</v>
+      </c>
+      <c r="D3" s="20">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2500</v>
+      </c>
+      <c r="I3" s="5">
+        <v>350</v>
+      </c>
+      <c r="J3" s="5">
+        <v>36</v>
+      </c>
+      <c r="K3" s="5">
+        <v>80</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="14">
+        <v>8</v>
+      </c>
+      <c r="C4" s="14">
+        <v>23</v>
+      </c>
+      <c r="D4" s="20">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>500</v>
+      </c>
+      <c r="I4" s="5">
+        <v>90</v>
+      </c>
+      <c r="J4" s="5">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5">
+        <v>18</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="14">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14">
+        <v>41</v>
+      </c>
+      <c r="D5" s="20">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="14">
+        <v>42</v>
+      </c>
+      <c r="C6" s="14">
+        <v>51</v>
+      </c>
+      <c r="D6" s="20">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>61</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="14">
+        <v>52</v>
+      </c>
+      <c r="C7" s="14">
+        <v>61</v>
+      </c>
+      <c r="D7" s="20">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>67</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="14">
+        <v>62</v>
+      </c>
+      <c r="C8" s="14">
+        <v>71</v>
+      </c>
+      <c r="D8" s="20">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>62</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="14">
+        <v>72</v>
+      </c>
+      <c r="C9" s="14">
+        <v>81</v>
+      </c>
+      <c r="D9" s="20">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>5000</v>
+      </c>
+      <c r="P9" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="14">
+        <v>82</v>
+      </c>
+      <c r="C10" s="14">
+        <v>88</v>
+      </c>
+      <c r="D10" s="20">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2">
+        <v>201</v>
+      </c>
+      <c r="J1" s="2">
+        <v>202</v>
+      </c>
+      <c r="K1" s="2">
+        <v>203</v>
+      </c>
+      <c r="L1" s="2">
+        <v>204</v>
+      </c>
+      <c r="M1" s="2">
+        <v>205</v>
+      </c>
+      <c r="N1" s="2">
+        <v>206</v>
+      </c>
+      <c r="O1" s="2">
+        <v>207</v>
+      </c>
+      <c r="P1" s="2">
+        <v>301</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>401</v>
+      </c>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>7</v>
+      </c>
+      <c r="D2" s="14">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="14">
+        <v>8</v>
+      </c>
+      <c r="C3" s="14">
+        <v>9</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2500</v>
+      </c>
+      <c r="I3" s="5">
+        <v>350</v>
+      </c>
+      <c r="J3" s="5">
+        <v>36</v>
+      </c>
+      <c r="K3" s="5">
+        <v>80</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="14">
+        <v>8</v>
+      </c>
+      <c r="C4" s="14">
+        <v>13</v>
+      </c>
+      <c r="D4" s="14">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>500</v>
+      </c>
+      <c r="I4" s="5">
+        <v>90</v>
+      </c>
+      <c r="J4" s="5">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5">
+        <v>18</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="14">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14">
+        <v>14</v>
+      </c>
+      <c r="D5" s="14">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="14">
+        <v>15</v>
+      </c>
+      <c r="C6" s="14">
+        <v>19</v>
+      </c>
+      <c r="D6" s="14">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>61</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="14">
+        <v>20</v>
+      </c>
+      <c r="C7" s="14">
+        <v>24</v>
+      </c>
+      <c r="D7" s="14">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>67</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="14">
+        <v>25</v>
+      </c>
+      <c r="C8" s="14">
+        <v>29</v>
+      </c>
+      <c r="D8" s="14">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>62</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="14">
+        <v>35</v>
+      </c>
+      <c r="C9" s="14">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>5000</v>
+      </c>
+      <c r="P9" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="14">
+        <v>40</v>
+      </c>
+      <c r="C10" s="14">
+        <v>46</v>
+      </c>
+      <c r="D10" s="14">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2">
+        <v>201</v>
+      </c>
+      <c r="J1" s="2">
+        <v>202</v>
+      </c>
+      <c r="K1" s="2">
+        <v>203</v>
+      </c>
+      <c r="L1" s="2">
+        <v>204</v>
+      </c>
+      <c r="M1" s="2">
+        <v>205</v>
+      </c>
+      <c r="N1" s="2">
+        <v>206</v>
+      </c>
+      <c r="O1" s="2">
+        <v>207</v>
+      </c>
+      <c r="P1" s="2">
+        <v>301</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>401</v>
+      </c>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>7</v>
+      </c>
+      <c r="D2" s="14">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="14">
+        <v>8</v>
+      </c>
+      <c r="C3" s="14">
+        <v>9</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2500</v>
+      </c>
+      <c r="I3" s="5">
+        <v>350</v>
+      </c>
+      <c r="J3" s="5">
+        <v>36</v>
+      </c>
+      <c r="K3" s="5">
+        <v>80</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="14">
+        <v>8</v>
+      </c>
+      <c r="C4" s="14">
+        <v>13</v>
+      </c>
+      <c r="D4" s="14">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>500</v>
+      </c>
+      <c r="I4" s="5">
+        <v>90</v>
+      </c>
+      <c r="J4" s="5">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5">
+        <v>18</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="14">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14">
+        <v>14</v>
+      </c>
+      <c r="D5" s="14">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="14">
+        <v>15</v>
+      </c>
+      <c r="C6" s="14">
+        <v>19</v>
+      </c>
+      <c r="D6" s="14">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>61</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="14">
+        <v>20</v>
+      </c>
+      <c r="C7" s="14">
+        <v>24</v>
+      </c>
+      <c r="D7" s="14">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>67</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="14">
+        <v>25</v>
+      </c>
+      <c r="C8" s="14">
+        <v>29</v>
+      </c>
+      <c r="D8" s="14">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>62</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="14">
+        <v>35</v>
+      </c>
+      <c r="C9" s="14">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>5000</v>
+      </c>
+      <c r="P9" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="14">
+        <v>40</v>
+      </c>
+      <c r="C10" s="14">
+        <v>46</v>
+      </c>
+      <c r="D10" s="14">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2">
+        <v>201</v>
+      </c>
+      <c r="J1" s="2">
+        <v>202</v>
+      </c>
+      <c r="K1" s="2">
+        <v>203</v>
+      </c>
+      <c r="L1" s="2">
+        <v>204</v>
+      </c>
+      <c r="M1" s="2">
+        <v>205</v>
+      </c>
+      <c r="N1" s="2">
+        <v>206</v>
+      </c>
+      <c r="O1" s="2">
+        <v>207</v>
+      </c>
+      <c r="P1" s="2">
+        <v>301</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>401</v>
+      </c>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2500</v>
+      </c>
+      <c r="I3" s="5">
+        <v>350</v>
+      </c>
+      <c r="J3" s="5">
+        <v>36</v>
+      </c>
+      <c r="K3" s="5">
+        <v>80</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>500</v>
+      </c>
+      <c r="I4" s="5">
+        <v>90</v>
+      </c>
+      <c r="J4" s="5">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5">
+        <v>18</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>61</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>67</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>62</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>5000</v>
+      </c>
+      <c r="P9" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2">
+        <v>201</v>
+      </c>
+      <c r="J1" s="2">
+        <v>202</v>
+      </c>
+      <c r="K1" s="2">
+        <v>203</v>
+      </c>
+      <c r="L1" s="2">
+        <v>204</v>
+      </c>
+      <c r="M1" s="2">
+        <v>205</v>
+      </c>
+      <c r="N1" s="2">
+        <v>206</v>
+      </c>
+      <c r="O1" s="2">
+        <v>207</v>
+      </c>
+      <c r="P1" s="2">
+        <v>301</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>401</v>
+      </c>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2-B2</f>
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D10" si="0">C3-B3</f>
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2500</v>
+      </c>
+      <c r="I3" s="5">
+        <v>350</v>
+      </c>
+      <c r="J3" s="5">
+        <v>36</v>
+      </c>
+      <c r="K3" s="5">
+        <v>80</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>600</v>
+      </c>
+      <c r="I4" s="5">
+        <v>90</v>
+      </c>
+      <c r="J4" s="5">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5">
+        <v>18</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>61</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>67</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>62</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2">
+        <v>79</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>5000</v>
+      </c>
+      <c r="P9" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2">
+        <v>79</v>
+      </c>
+      <c r="C10" s="2">
+        <v>86</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,13 +4120,13 @@
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="20">
         <v>1</v>
       </c>
-      <c r="C2" s="12">
-        <v>8</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="C2" s="20">
+        <v>7</v>
+      </c>
+      <c r="D2" s="20">
         <v>7</v>
       </c>
       <c r="E2" s="5">
@@ -847,14 +4174,14 @@
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="20">
         <v>8</v>
       </c>
-      <c r="C3" s="15">
-        <v>25</v>
-      </c>
-      <c r="D3" s="15">
-        <v>17</v>
+      <c r="C3" s="20">
+        <v>16</v>
+      </c>
+      <c r="D3" s="20">
+        <v>9</v>
       </c>
       <c r="E3" s="5">
         <v>0.63</v>
@@ -901,14 +4228,14 @@
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="20">
         <v>8</v>
       </c>
-      <c r="C4" s="15">
-        <v>25</v>
-      </c>
-      <c r="D4" s="15">
-        <v>17</v>
+      <c r="C4" s="20">
+        <v>18</v>
+      </c>
+      <c r="D4" s="20">
+        <v>11</v>
       </c>
       <c r="E4" s="5">
         <v>0.37</v>
@@ -955,14 +4282,14 @@
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="20">
         <v>8</v>
       </c>
-      <c r="C5" s="15">
-        <v>25</v>
-      </c>
-      <c r="D5" s="15">
-        <v>17</v>
+      <c r="C5" s="20">
+        <v>13</v>
+      </c>
+      <c r="D5" s="20">
+        <v>6</v>
       </c>
       <c r="E5" s="5">
         <v>0.5</v>
@@ -1009,14 +4336,14 @@
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="20">
         <v>8</v>
       </c>
-      <c r="C6" s="15">
-        <v>25</v>
-      </c>
-      <c r="D6" s="15">
-        <v>17</v>
+      <c r="C6" s="20">
+        <v>14</v>
+      </c>
+      <c r="D6" s="20">
+        <v>7</v>
       </c>
       <c r="E6" s="5">
         <v>0.5</v>
@@ -1063,14 +4390,14 @@
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="20">
         <v>8</v>
       </c>
-      <c r="C7" s="15">
-        <v>16</v>
-      </c>
-      <c r="D7" s="15">
-        <v>8</v>
+      <c r="C7" s="20">
+        <v>12</v>
+      </c>
+      <c r="D7" s="20">
+        <v>5</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1117,14 +4444,14 @@
       <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="15">
-        <v>16</v>
-      </c>
-      <c r="C8" s="15">
-        <v>21</v>
-      </c>
-      <c r="D8" s="15">
-        <v>5</v>
+      <c r="B8" s="20">
+        <v>8</v>
+      </c>
+      <c r="C8" s="20">
+        <v>11</v>
+      </c>
+      <c r="D8" s="20">
+        <v>4</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -1171,14 +4498,14 @@
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="15">
-        <v>16</v>
-      </c>
-      <c r="C9" s="15">
-        <v>21</v>
-      </c>
-      <c r="D9" s="15">
-        <v>5</v>
+      <c r="B9" s="20">
+        <v>13</v>
+      </c>
+      <c r="C9" s="20">
+        <v>27</v>
+      </c>
+      <c r="D9" s="20">
+        <v>15</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1225,14 +4552,14 @@
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="15">
-        <v>25</v>
-      </c>
-      <c r="C10" s="15">
+      <c r="B10" s="20">
+        <v>28</v>
+      </c>
+      <c r="C10" s="20">
         <v>32</v>
       </c>
-      <c r="D10" s="15">
-        <v>7</v>
+      <c r="D10" s="20">
+        <v>5</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1279,14 +4606,14 @@
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="20">
         <v>33</v>
       </c>
-      <c r="C11" s="15">
-        <v>40</v>
-      </c>
-      <c r="D11" s="15">
-        <v>7</v>
+      <c r="C11" s="20">
+        <v>37</v>
+      </c>
+      <c r="D11" s="20">
+        <v>5</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -1332,14 +4659,14 @@
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="15">
-        <v>40</v>
-      </c>
-      <c r="C12" s="15">
-        <v>19</v>
-      </c>
-      <c r="D12" s="15">
-        <v>-21</v>
+      <c r="B12" s="20">
+        <v>38</v>
+      </c>
+      <c r="C12" s="20">
+        <v>42</v>
+      </c>
+      <c r="D12" s="20">
+        <v>5</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -1385,14 +4712,14 @@
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="15">
-        <v>57</v>
-      </c>
-      <c r="C13" s="15">
-        <v>64</v>
-      </c>
-      <c r="D13" s="15">
-        <v>7</v>
+      <c r="B13" s="20">
+        <v>40</v>
+      </c>
+      <c r="C13" s="20">
+        <v>44</v>
+      </c>
+      <c r="D13" s="20">
+        <v>5</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -1438,14 +4765,14 @@
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="15">
-        <v>64</v>
-      </c>
-      <c r="C14" s="15">
-        <v>72</v>
-      </c>
-      <c r="D14" s="15">
-        <v>8</v>
+      <c r="B14" s="20">
+        <v>45</v>
+      </c>
+      <c r="C14" s="20">
+        <v>49</v>
+      </c>
+      <c r="D14" s="20">
+        <v>5</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -1490,30 +4817,23 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C17" s="11"/>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B2" sqref="B2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1581,13 +4901,13 @@
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="12">
-        <v>8</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="C2" s="14">
+        <v>7</v>
+      </c>
+      <c r="D2" s="14">
         <v>7</v>
       </c>
       <c r="E2" s="5">
@@ -1635,14 +4955,14 @@
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>8</v>
       </c>
-      <c r="C3" s="15">
-        <v>25</v>
-      </c>
-      <c r="D3" s="15">
-        <v>17</v>
+      <c r="C3" s="14">
+        <v>16</v>
+      </c>
+      <c r="D3" s="14">
+        <v>9</v>
       </c>
       <c r="E3" s="5">
         <v>0.63</v>
@@ -1689,14 +5009,14 @@
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>8</v>
       </c>
-      <c r="C4" s="15">
-        <v>25</v>
-      </c>
-      <c r="D4" s="15">
-        <v>17</v>
+      <c r="C4" s="14">
+        <v>18</v>
+      </c>
+      <c r="D4" s="14">
+        <v>11</v>
       </c>
       <c r="E4" s="5">
         <v>0.37</v>
@@ -1743,14 +5063,14 @@
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>8</v>
       </c>
-      <c r="C5" s="15">
-        <v>25</v>
-      </c>
-      <c r="D5" s="15">
-        <v>17</v>
+      <c r="C5" s="14">
+        <v>13</v>
+      </c>
+      <c r="D5" s="14">
+        <v>6</v>
       </c>
       <c r="E5" s="5">
         <v>0.5</v>
@@ -1797,14 +5117,14 @@
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>8</v>
       </c>
-      <c r="C6" s="15">
-        <v>25</v>
-      </c>
-      <c r="D6" s="15">
-        <v>17</v>
+      <c r="C6" s="14">
+        <v>14</v>
+      </c>
+      <c r="D6" s="14">
+        <v>7</v>
       </c>
       <c r="E6" s="5">
         <v>0.5</v>
@@ -1851,14 +5171,14 @@
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>8</v>
       </c>
-      <c r="C7" s="15">
-        <v>16</v>
-      </c>
-      <c r="D7" s="15">
-        <v>8</v>
+      <c r="C7" s="14">
+        <v>12</v>
+      </c>
+      <c r="D7" s="14">
+        <v>5</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1905,14 +5225,14 @@
       <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="15">
-        <v>16</v>
-      </c>
-      <c r="C8" s="15">
-        <v>21</v>
-      </c>
-      <c r="D8" s="15">
-        <v>5</v>
+      <c r="B8" s="14">
+        <v>8</v>
+      </c>
+      <c r="C8" s="14">
+        <v>11</v>
+      </c>
+      <c r="D8" s="14">
+        <v>4</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -1959,14 +5279,14 @@
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="15">
-        <v>16</v>
-      </c>
-      <c r="C9" s="15">
-        <v>21</v>
-      </c>
-      <c r="D9" s="15">
-        <v>5</v>
+      <c r="B9" s="14">
+        <v>13</v>
+      </c>
+      <c r="C9" s="14">
+        <v>27</v>
+      </c>
+      <c r="D9" s="14">
+        <v>15</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -2013,14 +5333,14 @@
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="15">
-        <v>25</v>
-      </c>
-      <c r="C10" s="15">
+      <c r="B10" s="14">
+        <v>28</v>
+      </c>
+      <c r="C10" s="14">
         <v>32</v>
       </c>
-      <c r="D10" s="15">
-        <v>7</v>
+      <c r="D10" s="14">
+        <v>5</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -2067,14 +5387,14 @@
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>33</v>
       </c>
-      <c r="C11" s="15">
-        <v>40</v>
-      </c>
-      <c r="D11" s="15">
-        <v>7</v>
+      <c r="C11" s="14">
+        <v>37</v>
+      </c>
+      <c r="D11" s="14">
+        <v>5</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -2120,14 +5440,14 @@
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="15">
-        <v>40</v>
-      </c>
-      <c r="C12" s="15">
-        <v>19</v>
-      </c>
-      <c r="D12" s="15">
-        <v>-21</v>
+      <c r="B12" s="14">
+        <v>38</v>
+      </c>
+      <c r="C12" s="14">
+        <v>42</v>
+      </c>
+      <c r="D12" s="14">
+        <v>5</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -2173,14 +5493,14 @@
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="15">
-        <v>57</v>
-      </c>
-      <c r="C13" s="15">
-        <v>64</v>
-      </c>
-      <c r="D13" s="15">
-        <v>7</v>
+      <c r="B13" s="14">
+        <v>43</v>
+      </c>
+      <c r="C13" s="14">
+        <v>47</v>
+      </c>
+      <c r="D13" s="14">
+        <v>5</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -2226,14 +5546,14 @@
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="15">
-        <v>64</v>
-      </c>
-      <c r="C14" s="15">
-        <v>72</v>
-      </c>
-      <c r="D14" s="15">
-        <v>8</v>
+      <c r="B14" s="14">
+        <v>48</v>
+      </c>
+      <c r="C14" s="14">
+        <v>52</v>
+      </c>
+      <c r="D14" s="14">
+        <v>5</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -2278,36 +5598,107 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C17" s="11"/>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="11"/>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="50.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
@@ -2322,7 +5713,7 @@
       <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="2">
@@ -2370,13 +5761,13 @@
       <c r="A2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="15">
-        <v>8</v>
-      </c>
-      <c r="D2" s="15">
+      <c r="C2" s="14">
+        <v>7</v>
+      </c>
+      <c r="D2" s="14">
         <v>7</v>
       </c>
       <c r="E2" s="5">
@@ -2424,13 +5815,13 @@
       <c r="A3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>8</v>
       </c>
-      <c r="C3" s="15">
-        <v>25</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="C3" s="14">
+        <v>24</v>
+      </c>
+      <c r="D3" s="14">
         <v>17</v>
       </c>
       <c r="E3" s="5">
@@ -2478,14 +5869,14 @@
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>8</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>25</v>
       </c>
-      <c r="D4" s="15">
-        <v>17</v>
+      <c r="D4" s="14">
+        <v>18</v>
       </c>
       <c r="E4" s="5">
         <v>1.35</v>
@@ -2532,14 +5923,14 @@
       <c r="A5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>8</v>
       </c>
-      <c r="C5" s="15">
-        <v>25</v>
-      </c>
-      <c r="D5" s="15">
-        <v>17</v>
+      <c r="C5" s="14">
+        <v>19</v>
+      </c>
+      <c r="D5" s="14">
+        <v>12</v>
       </c>
       <c r="E5" s="5">
         <v>0.85</v>
@@ -2586,14 +5977,14 @@
       <c r="A6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>8</v>
       </c>
-      <c r="C6" s="15">
-        <v>25</v>
-      </c>
-      <c r="D6" s="15">
-        <v>17</v>
+      <c r="C6" s="14">
+        <v>13</v>
+      </c>
+      <c r="D6" s="14">
+        <v>6</v>
       </c>
       <c r="E6" s="5">
         <v>0.55000000000000004</v>
@@ -2640,14 +6031,14 @@
       <c r="A7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>8</v>
       </c>
-      <c r="C7" s="15">
-        <v>16</v>
-      </c>
-      <c r="D7" s="15">
-        <v>8</v>
+      <c r="C7" s="14">
+        <v>14</v>
+      </c>
+      <c r="D7" s="14">
+        <v>7</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -2694,14 +6085,14 @@
       <c r="A8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="15">
-        <v>16</v>
-      </c>
-      <c r="C8" s="15">
-        <v>21</v>
-      </c>
-      <c r="D8" s="15">
-        <v>5</v>
+      <c r="B8" s="14">
+        <v>47</v>
+      </c>
+      <c r="C8" s="14">
+        <v>55</v>
+      </c>
+      <c r="D8" s="14">
+        <v>9</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -2748,14 +6139,14 @@
       <c r="A9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="15">
-        <v>16</v>
-      </c>
-      <c r="C9" s="15">
-        <v>21</v>
-      </c>
-      <c r="D9" s="15">
-        <v>5</v>
+      <c r="B9" s="14">
+        <v>47</v>
+      </c>
+      <c r="C9" s="14">
+        <v>61</v>
+      </c>
+      <c r="D9" s="14">
+        <v>15</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -2802,13 +6193,13 @@
       <c r="A10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="15">
-        <v>25</v>
-      </c>
-      <c r="C10" s="15">
-        <v>32</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="B10" s="14">
+        <v>56</v>
+      </c>
+      <c r="C10" s="14">
+        <v>62</v>
+      </c>
+      <c r="D10" s="14">
         <v>7</v>
       </c>
       <c r="E10" s="5">
@@ -2856,13 +6247,13 @@
       <c r="A11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="15">
-        <v>33</v>
-      </c>
-      <c r="C11" s="15">
-        <v>40</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="B11" s="14">
+        <v>62</v>
+      </c>
+      <c r="C11" s="14">
+        <v>68</v>
+      </c>
+      <c r="D11" s="14">
         <v>7</v>
       </c>
       <c r="E11" s="5">
@@ -2909,14 +6300,14 @@
       <c r="A12" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="15">
-        <v>40</v>
-      </c>
-      <c r="C12" s="15">
-        <v>19</v>
-      </c>
-      <c r="D12" s="15">
-        <v>-21</v>
+      <c r="B12" s="14">
+        <v>63</v>
+      </c>
+      <c r="C12" s="14">
+        <v>69</v>
+      </c>
+      <c r="D12" s="14">
+        <v>7</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -2962,13 +6353,13 @@
       <c r="A13" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="15">
-        <v>57</v>
-      </c>
-      <c r="C13" s="15">
-        <v>64</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="B13" s="14">
+        <v>70</v>
+      </c>
+      <c r="C13" s="14">
+        <v>76</v>
+      </c>
+      <c r="D13" s="14">
         <v>7</v>
       </c>
       <c r="E13" s="5">
@@ -3015,14 +6406,14 @@
       <c r="A14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="15">
-        <v>64</v>
-      </c>
-      <c r="C14" s="15">
-        <v>72</v>
-      </c>
-      <c r="D14" s="15">
-        <v>8</v>
+      <c r="B14" s="14">
+        <v>77</v>
+      </c>
+      <c r="C14" s="14">
+        <v>83</v>
+      </c>
+      <c r="D14" s="14">
+        <v>7</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -3067,32 +6458,11 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C17" s="11"/>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="11"/>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="11"/>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D23" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3100,7 +6470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
@@ -3972,12 +7342,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q14"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3985,7 +7355,7 @@
     <col min="1" max="1" width="47.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="17"/>
+    <col min="19" max="19" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -4095,7 +7465,7 @@
         <v>0.04</v>
       </c>
       <c r="R2" s="4"/>
-      <c r="S2" s="17">
+      <c r="S2" s="16">
         <f>P2*200</f>
         <v>4000</v>
       </c>
@@ -4157,7 +7527,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="R3" s="4"/>
-      <c r="S3" s="17">
+      <c r="S3" s="16">
         <f t="shared" ref="S3:S14" si="0">P3*200</f>
         <v>7000</v>
       </c>
@@ -4219,7 +7589,7 @@
         <v>0.08</v>
       </c>
       <c r="R4" s="4"/>
-      <c r="S4" s="17">
+      <c r="S4" s="16">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
@@ -4281,7 +7651,7 @@
         <v>0.05</v>
       </c>
       <c r="R5" s="4"/>
-      <c r="S5" s="17">
+      <c r="S5" s="16">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
@@ -4343,7 +7713,7 @@
         <v>0.03</v>
       </c>
       <c r="R6" s="4"/>
-      <c r="S6" s="17">
+      <c r="S6" s="16">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
@@ -4405,7 +7775,7 @@
         <v>0.06</v>
       </c>
       <c r="R7" s="4"/>
-      <c r="S7" s="17">
+      <c r="S7" s="16">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
@@ -4467,7 +7837,7 @@
         <v>0.12</v>
       </c>
       <c r="R8" s="4"/>
-      <c r="S8" s="17">
+      <c r="S8" s="16">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
@@ -4529,7 +7899,7 @@
         <v>0.06</v>
       </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="17">
+      <c r="S9" s="16">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
@@ -4591,7 +7961,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="R10" s="4"/>
-      <c r="S10" s="17">
+      <c r="S10" s="16">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
@@ -4652,7 +8022,7 @@
       <c r="Q11" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="16">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
@@ -4713,7 +8083,7 @@
       <c r="Q12" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="16">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
@@ -4774,7 +8144,7 @@
       <c r="Q13" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="16">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
@@ -4835,7 +8205,7 @@
       <c r="Q14" s="9">
         <v>0.12</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="16">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
@@ -5016,6 +8386,1542 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S8"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2">
+        <v>201</v>
+      </c>
+      <c r="J1" s="2">
+        <v>202</v>
+      </c>
+      <c r="K1" s="2">
+        <v>203</v>
+      </c>
+      <c r="L1" s="2">
+        <v>204</v>
+      </c>
+      <c r="M1" s="2">
+        <v>205</v>
+      </c>
+      <c r="N1" s="2">
+        <v>206</v>
+      </c>
+      <c r="O1" s="2">
+        <v>207</v>
+      </c>
+      <c r="P1" s="2">
+        <v>208</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>301</v>
+      </c>
+      <c r="R1" s="6">
+        <v>401</v>
+      </c>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>20</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>20</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="5">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>182</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>100</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="5">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="5">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>50</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5">
+        <v>64</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>20</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S8"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5">
+        <v>101</v>
+      </c>
+      <c r="F1" s="5">
+        <v>102</v>
+      </c>
+      <c r="G1" s="5">
+        <v>103</v>
+      </c>
+      <c r="H1" s="5">
+        <v>104</v>
+      </c>
+      <c r="I1" s="5">
+        <v>201</v>
+      </c>
+      <c r="J1" s="5">
+        <v>202</v>
+      </c>
+      <c r="K1" s="5">
+        <v>203</v>
+      </c>
+      <c r="L1" s="5">
+        <v>204</v>
+      </c>
+      <c r="M1" s="5">
+        <v>205</v>
+      </c>
+      <c r="N1" s="5">
+        <v>206</v>
+      </c>
+      <c r="O1" s="5">
+        <v>207</v>
+      </c>
+      <c r="P1" s="5">
+        <v>208</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>301</v>
+      </c>
+      <c r="R1" s="5">
+        <v>401</v>
+      </c>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>20</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>20</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="5">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>115</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>100</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="5">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="5">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>50</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5">
+        <v>64</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>20</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5">
+        <v>101</v>
+      </c>
+      <c r="F1" s="5">
+        <v>102</v>
+      </c>
+      <c r="G1" s="5">
+        <v>103</v>
+      </c>
+      <c r="H1" s="5">
+        <v>104</v>
+      </c>
+      <c r="I1" s="5">
+        <v>201</v>
+      </c>
+      <c r="J1" s="5">
+        <v>202</v>
+      </c>
+      <c r="K1" s="5">
+        <v>203</v>
+      </c>
+      <c r="L1" s="5">
+        <v>204</v>
+      </c>
+      <c r="M1" s="5">
+        <v>205</v>
+      </c>
+      <c r="N1" s="5">
+        <v>206</v>
+      </c>
+      <c r="O1" s="5">
+        <v>207</v>
+      </c>
+      <c r="P1" s="5">
+        <v>208</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>301</v>
+      </c>
+      <c r="R1" s="5">
+        <v>401</v>
+      </c>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>20</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>20</v>
+      </c>
+      <c r="R3" s="5">
+        <v>1.08</v>
+      </c>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="5">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>100</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5">
+        <v>54</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>20</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5">
+        <v>101</v>
+      </c>
+      <c r="F1" s="5">
+        <v>102</v>
+      </c>
+      <c r="G1" s="5">
+        <v>103</v>
+      </c>
+      <c r="H1" s="5">
+        <v>104</v>
+      </c>
+      <c r="I1" s="5">
+        <v>201</v>
+      </c>
+      <c r="J1" s="5">
+        <v>202</v>
+      </c>
+      <c r="K1" s="5">
+        <v>203</v>
+      </c>
+      <c r="L1" s="5">
+        <v>204</v>
+      </c>
+      <c r="M1" s="5">
+        <v>205</v>
+      </c>
+      <c r="N1" s="5">
+        <v>206</v>
+      </c>
+      <c r="O1" s="5">
+        <v>207</v>
+      </c>
+      <c r="P1" s="5">
+        <v>208</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>301</v>
+      </c>
+      <c r="R1" s="5">
+        <v>401</v>
+      </c>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>20</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>20</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="5">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>50</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5">
+        <v>54</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>20</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -5190,7 +10096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
@@ -5768,7 +10674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -5783,7 +10689,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -5797,7 +10703,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="2">
@@ -5806,7 +10712,7 @@
       <c r="C2" s="2">
         <v>87</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5853,7 +10759,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="2">
@@ -5867,7 +10773,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="2">
@@ -5881,7 +10787,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>71</v>
       </c>
       <c r="B8" s="2">
@@ -5907,2903 +10813,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="2">
-        <v>101</v>
-      </c>
-      <c r="F1" s="2">
-        <v>102</v>
-      </c>
-      <c r="G1" s="2">
-        <v>103</v>
-      </c>
-      <c r="H1" s="2">
-        <v>104</v>
-      </c>
-      <c r="I1" s="2">
-        <v>201</v>
-      </c>
-      <c r="J1" s="2">
-        <v>202</v>
-      </c>
-      <c r="K1" s="2">
-        <v>203</v>
-      </c>
-      <c r="L1" s="2">
-        <v>204</v>
-      </c>
-      <c r="M1" s="2">
-        <v>205</v>
-      </c>
-      <c r="N1" s="2">
-        <v>206</v>
-      </c>
-      <c r="O1" s="2">
-        <v>207</v>
-      </c>
-      <c r="P1" s="2">
-        <v>301</v>
-      </c>
-      <c r="Q1" s="6">
-        <v>401</v>
-      </c>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2500</v>
-      </c>
-      <c r="I3" s="5">
-        <v>350</v>
-      </c>
-      <c r="J3" s="5">
-        <v>36</v>
-      </c>
-      <c r="K3" s="5">
-        <v>80</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>120</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>500</v>
-      </c>
-      <c r="I4" s="5">
-        <v>90</v>
-      </c>
-      <c r="J4" s="5">
-        <v>8</v>
-      </c>
-      <c r="K4" s="5">
-        <v>18</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5">
-        <v>41</v>
-      </c>
-      <c r="D5" s="5">
-        <v>34</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>61</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5">
-        <v>51</v>
-      </c>
-      <c r="C7" s="5">
-        <v>60</v>
-      </c>
-      <c r="D7" s="5">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>67</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="5">
-        <v>61</v>
-      </c>
-      <c r="C8" s="5">
-        <v>70</v>
-      </c>
-      <c r="D8" s="5">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5">
-        <v>62</v>
-      </c>
-      <c r="O8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5">
-        <v>71</v>
-      </c>
-      <c r="C9" s="5">
-        <v>80</v>
-      </c>
-      <c r="D9" s="5">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>5000</v>
-      </c>
-      <c r="P9" s="5">
-        <v>150</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5">
-        <v>81</v>
-      </c>
-      <c r="C10" s="5">
-        <v>87</v>
-      </c>
-      <c r="D10" s="5">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="2">
-        <v>101</v>
-      </c>
-      <c r="F1" s="2">
-        <v>102</v>
-      </c>
-      <c r="G1" s="2">
-        <v>103</v>
-      </c>
-      <c r="H1" s="2">
-        <v>104</v>
-      </c>
-      <c r="I1" s="2">
-        <v>201</v>
-      </c>
-      <c r="J1" s="2">
-        <v>202</v>
-      </c>
-      <c r="K1" s="2">
-        <v>203</v>
-      </c>
-      <c r="L1" s="2">
-        <v>204</v>
-      </c>
-      <c r="M1" s="2">
-        <v>205</v>
-      </c>
-      <c r="N1" s="2">
-        <v>206</v>
-      </c>
-      <c r="O1" s="2">
-        <v>207</v>
-      </c>
-      <c r="P1" s="2">
-        <v>301</v>
-      </c>
-      <c r="Q1" s="6">
-        <v>401</v>
-      </c>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2500</v>
-      </c>
-      <c r="I3" s="5">
-        <v>350</v>
-      </c>
-      <c r="J3" s="5">
-        <v>36</v>
-      </c>
-      <c r="K3" s="5">
-        <v>80</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>120</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>500</v>
-      </c>
-      <c r="I4" s="5">
-        <v>90</v>
-      </c>
-      <c r="J4" s="5">
-        <v>8</v>
-      </c>
-      <c r="K4" s="5">
-        <v>18</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5">
-        <v>41</v>
-      </c>
-      <c r="D5" s="5">
-        <v>34</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>61</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5">
-        <v>51</v>
-      </c>
-      <c r="C7" s="5">
-        <v>60</v>
-      </c>
-      <c r="D7" s="5">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>67</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="5">
-        <v>61</v>
-      </c>
-      <c r="C8" s="5">
-        <v>70</v>
-      </c>
-      <c r="D8" s="5">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5">
-        <v>62</v>
-      </c>
-      <c r="O8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5">
-        <v>71</v>
-      </c>
-      <c r="C9" s="5">
-        <v>80</v>
-      </c>
-      <c r="D9" s="5">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>5000</v>
-      </c>
-      <c r="P9" s="5">
-        <v>150</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5">
-        <v>81</v>
-      </c>
-      <c r="C10" s="5">
-        <v>87</v>
-      </c>
-      <c r="D10" s="5">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="2">
-        <v>101</v>
-      </c>
-      <c r="F1" s="2">
-        <v>102</v>
-      </c>
-      <c r="G1" s="2">
-        <v>103</v>
-      </c>
-      <c r="H1" s="2">
-        <v>104</v>
-      </c>
-      <c r="I1" s="2">
-        <v>201</v>
-      </c>
-      <c r="J1" s="2">
-        <v>202</v>
-      </c>
-      <c r="K1" s="2">
-        <v>203</v>
-      </c>
-      <c r="L1" s="2">
-        <v>204</v>
-      </c>
-      <c r="M1" s="2">
-        <v>205</v>
-      </c>
-      <c r="N1" s="2">
-        <v>206</v>
-      </c>
-      <c r="O1" s="2">
-        <v>207</v>
-      </c>
-      <c r="P1" s="2">
-        <v>301</v>
-      </c>
-      <c r="Q1" s="6">
-        <v>401</v>
-      </c>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2500</v>
-      </c>
-      <c r="I3" s="5">
-        <v>350</v>
-      </c>
-      <c r="J3" s="5">
-        <v>36</v>
-      </c>
-      <c r="K3" s="5">
-        <v>80</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>120</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>500</v>
-      </c>
-      <c r="I4" s="5">
-        <v>90</v>
-      </c>
-      <c r="J4" s="5">
-        <v>8</v>
-      </c>
-      <c r="K4" s="5">
-        <v>18</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5">
-        <v>41</v>
-      </c>
-      <c r="D5" s="5">
-        <v>34</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>61</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5">
-        <v>51</v>
-      </c>
-      <c r="C7" s="5">
-        <v>60</v>
-      </c>
-      <c r="D7" s="5">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>67</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="5">
-        <v>61</v>
-      </c>
-      <c r="C8" s="5">
-        <v>70</v>
-      </c>
-      <c r="D8" s="5">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5">
-        <v>62</v>
-      </c>
-      <c r="O8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5">
-        <v>71</v>
-      </c>
-      <c r="C9" s="5">
-        <v>80</v>
-      </c>
-      <c r="D9" s="5">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>5000</v>
-      </c>
-      <c r="P9" s="5">
-        <v>150</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5">
-        <v>81</v>
-      </c>
-      <c r="C10" s="5">
-        <v>87</v>
-      </c>
-      <c r="D10" s="5">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="2">
-        <v>101</v>
-      </c>
-      <c r="F1" s="2">
-        <v>102</v>
-      </c>
-      <c r="G1" s="2">
-        <v>103</v>
-      </c>
-      <c r="H1" s="2">
-        <v>104</v>
-      </c>
-      <c r="I1" s="2">
-        <v>201</v>
-      </c>
-      <c r="J1" s="2">
-        <v>202</v>
-      </c>
-      <c r="K1" s="2">
-        <v>203</v>
-      </c>
-      <c r="L1" s="2">
-        <v>204</v>
-      </c>
-      <c r="M1" s="2">
-        <v>205</v>
-      </c>
-      <c r="N1" s="2">
-        <v>206</v>
-      </c>
-      <c r="O1" s="2">
-        <v>207</v>
-      </c>
-      <c r="P1" s="2">
-        <v>301</v>
-      </c>
-      <c r="Q1" s="6">
-        <v>401</v>
-      </c>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2500</v>
-      </c>
-      <c r="I3" s="5">
-        <v>350</v>
-      </c>
-      <c r="J3" s="5">
-        <v>36</v>
-      </c>
-      <c r="K3" s="5">
-        <v>80</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>120</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>500</v>
-      </c>
-      <c r="I4" s="5">
-        <v>90</v>
-      </c>
-      <c r="J4" s="5">
-        <v>8</v>
-      </c>
-      <c r="K4" s="5">
-        <v>18</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5">
-        <v>41</v>
-      </c>
-      <c r="D5" s="5">
-        <v>34</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>61</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5">
-        <v>51</v>
-      </c>
-      <c r="C7" s="5">
-        <v>60</v>
-      </c>
-      <c r="D7" s="5">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>67</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="5">
-        <v>61</v>
-      </c>
-      <c r="C8" s="5">
-        <v>70</v>
-      </c>
-      <c r="D8" s="5">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5">
-        <v>62</v>
-      </c>
-      <c r="O8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5">
-        <v>71</v>
-      </c>
-      <c r="C9" s="5">
-        <v>80</v>
-      </c>
-      <c r="D9" s="5">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>5000</v>
-      </c>
-      <c r="P9" s="5">
-        <v>150</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5">
-        <v>81</v>
-      </c>
-      <c r="C10" s="5">
-        <v>87</v>
-      </c>
-      <c r="D10" s="5">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="2">
-        <v>101</v>
-      </c>
-      <c r="F1" s="2">
-        <v>102</v>
-      </c>
-      <c r="G1" s="2">
-        <v>103</v>
-      </c>
-      <c r="H1" s="2">
-        <v>104</v>
-      </c>
-      <c r="I1" s="2">
-        <v>201</v>
-      </c>
-      <c r="J1" s="2">
-        <v>202</v>
-      </c>
-      <c r="K1" s="2">
-        <v>203</v>
-      </c>
-      <c r="L1" s="2">
-        <v>204</v>
-      </c>
-      <c r="M1" s="2">
-        <v>205</v>
-      </c>
-      <c r="N1" s="2">
-        <v>206</v>
-      </c>
-      <c r="O1" s="2">
-        <v>207</v>
-      </c>
-      <c r="P1" s="2">
-        <v>301</v>
-      </c>
-      <c r="Q1" s="6">
-        <v>401</v>
-      </c>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <f>C2-B2</f>
-        <v>7</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="2">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D10" si="0">C3-B3</f>
-        <v>17</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2500</v>
-      </c>
-      <c r="I3" s="5">
-        <v>350</v>
-      </c>
-      <c r="J3" s="5">
-        <v>36</v>
-      </c>
-      <c r="K3" s="5">
-        <v>80</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>90</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>600</v>
-      </c>
-      <c r="I4" s="5">
-        <v>90</v>
-      </c>
-      <c r="J4" s="5">
-        <v>8</v>
-      </c>
-      <c r="K4" s="5">
-        <v>18</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="2">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>39</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>2</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>61</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>48</v>
-      </c>
-      <c r="C7" s="2">
-        <v>59</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>67</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>58</v>
-      </c>
-      <c r="C8" s="2">
-        <v>69</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5">
-        <v>62</v>
-      </c>
-      <c r="O8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="2">
-        <v>68</v>
-      </c>
-      <c r="C9" s="2">
-        <v>79</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>5000</v>
-      </c>
-      <c r="P9" s="5">
-        <v>150</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="2">
-        <v>79</v>
-      </c>
-      <c r="C10" s="2">
-        <v>86</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Civilworks cost/Spec for EMB PROT Works/Resources.xlsx
+++ b/Civilworks cost/Spec for EMB PROT Works/Resources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Type_B5_1165M_1015_TO_2180" sheetId="20" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="91">
   <si>
     <t>Code</t>
   </si>
@@ -308,6 +308,9 @@
   <si>
     <t>Turfing 15632 cum</t>
   </si>
+  <si>
+    <t>Curing CC Block</t>
+  </si>
 </sst>
 </file>
 
@@ -388,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -432,6 +435,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,14 +724,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -782,7 +788,7 @@
       </c>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -839,7 +845,7 @@
       </c>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>86</v>
       </c>
@@ -896,7 +902,7 @@
       </c>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>87</v>
       </c>
@@ -953,7 +959,7 @@
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>88</v>
       </c>
@@ -1010,7 +1016,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
@@ -1067,7 +1073,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1124,7 +1130,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1150,20 +1156,636 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2">
+        <v>201</v>
+      </c>
+      <c r="J1" s="2">
+        <v>202</v>
+      </c>
+      <c r="K1" s="2">
+        <v>203</v>
+      </c>
+      <c r="L1" s="2">
+        <v>204</v>
+      </c>
+      <c r="M1" s="2">
+        <v>205</v>
+      </c>
+      <c r="N1" s="2">
+        <v>206</v>
+      </c>
+      <c r="O1" s="2">
+        <v>207</v>
+      </c>
+      <c r="P1" s="2">
+        <v>301</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>401</v>
+      </c>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2500</v>
+      </c>
+      <c r="I3" s="5">
+        <v>350</v>
+      </c>
+      <c r="J3" s="5">
+        <v>36</v>
+      </c>
+      <c r="K3" s="5">
+        <v>80</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>500</v>
+      </c>
+      <c r="I4" s="5">
+        <v>90</v>
+      </c>
+      <c r="J4" s="5">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5">
+        <v>18</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5">
+        <v>44</v>
+      </c>
+      <c r="D5" s="5">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>41</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>61</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45</v>
+      </c>
+      <c r="C7" s="5">
+        <v>54</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>67</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5">
+        <v>54</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>62</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5">
+        <v>54</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>5000</v>
+      </c>
+      <c r="P9" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45</v>
+      </c>
+      <c r="C10" s="5">
+        <v>54</v>
+      </c>
+      <c r="D10" s="5">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5">
+        <v>55</v>
+      </c>
+      <c r="C11" s="5">
+        <v>61</v>
+      </c>
+      <c r="D11" s="5">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1217,8 +1839,8 @@
       </c>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="14">
@@ -1227,7 +1849,7 @@
       <c r="C2" s="14">
         <v>7</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="14">
         <v>7</v>
       </c>
       <c r="E2" s="5">
@@ -1271,18 +1893,18 @@
       </c>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="14">
         <v>8</v>
       </c>
       <c r="C3" s="14">
-        <v>23</v>
-      </c>
-      <c r="D3" s="20">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2</v>
       </c>
       <c r="E3" s="5">
         <v>3</v>
@@ -1325,18 +1947,18 @@
       </c>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="14">
         <v>8</v>
       </c>
       <c r="C4" s="14">
-        <v>23</v>
-      </c>
-      <c r="D4" s="20">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="14">
+        <v>6</v>
       </c>
       <c r="E4" s="5">
         <v>2</v>
@@ -1379,18 +2001,18 @@
       </c>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="14">
         <v>8</v>
       </c>
       <c r="C5" s="14">
-        <v>41</v>
-      </c>
-      <c r="D5" s="20">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="14">
+        <v>7</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -1433,18 +2055,18 @@
       </c>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="14">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C6" s="14">
-        <v>51</v>
-      </c>
-      <c r="D6" s="20">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="14">
+        <v>5</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -1487,18 +2109,18 @@
       </c>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="14">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C7" s="14">
-        <v>61</v>
-      </c>
-      <c r="D7" s="20">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="D7" s="14">
+        <v>5</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1541,18 +2163,18 @@
       </c>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="14">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C8" s="14">
-        <v>71</v>
-      </c>
-      <c r="D8" s="20">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="D8" s="14">
+        <v>5</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -1595,18 +2217,18 @@
       </c>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="14">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C9" s="14">
-        <v>81</v>
-      </c>
-      <c r="D9" s="20">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="D9" s="14">
+        <v>5</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1649,17 +2271,17 @@
       </c>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="14">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C10" s="14">
-        <v>88</v>
-      </c>
-      <c r="D10" s="20">
+        <v>46</v>
+      </c>
+      <c r="D10" s="14">
         <v>7</v>
       </c>
       <c r="E10" s="5">
@@ -1703,7 +2325,7 @@
       </c>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1726,22 +2348,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A13" sqref="A13:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1795,7 +2417,7 @@
       </c>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1849,7 +2471,7 @@
       </c>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1903,7 +2525,7 @@
       </c>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1957,7 +2579,7 @@
       </c>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -2011,7 +2633,7 @@
       </c>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -2065,7 +2687,7 @@
       </c>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -2119,7 +2741,7 @@
       </c>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -2173,7 +2795,7 @@
       </c>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -2227,7 +2849,7 @@
       </c>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -2281,7 +2903,7 @@
       </c>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2304,22 +2926,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D22"/>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2373,17 +2995,17 @@
       </c>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="5">
         <v>7</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="2">
         <v>7</v>
       </c>
       <c r="E2" s="5">
@@ -2427,17 +3049,17 @@
       </c>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="5">
         <v>8</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="5">
         <v>9</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
       <c r="E3" s="5">
@@ -2481,17 +3103,17 @@
       </c>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="5">
         <v>8</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="5">
         <v>13</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="2">
         <v>6</v>
       </c>
       <c r="E4" s="5">
@@ -2535,17 +3157,17 @@
       </c>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="5">
         <v>8</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="5">
         <v>14</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="2">
         <v>7</v>
       </c>
       <c r="E5" s="5">
@@ -2589,17 +3211,17 @@
       </c>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="5">
         <v>15</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="5">
         <v>19</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="2">
         <v>5</v>
       </c>
       <c r="E6" s="5">
@@ -2643,17 +3265,17 @@
       </c>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="5">
         <v>20</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="5">
         <v>24</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="2">
         <v>5</v>
       </c>
       <c r="E7" s="5">
@@ -2697,17 +3319,17 @@
       </c>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="5">
         <v>25</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="5">
         <v>29</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="2">
         <v>5</v>
       </c>
       <c r="E8" s="5">
@@ -2751,17 +3373,17 @@
       </c>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="5">
         <v>35</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="5">
         <v>39</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="2">
         <v>5</v>
       </c>
       <c r="E9" s="5">
@@ -2805,17 +3427,17 @@
       </c>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="5">
         <v>40</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="5">
         <v>46</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="2">
         <v>7</v>
       </c>
       <c r="E10" s="5">
@@ -2859,7 +3481,7 @@
       </c>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2882,22 +3504,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2951,17 +3573,18 @@
       </c>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
-        <v>7</v>
+      <c r="C2" s="2">
+        <v>8</v>
       </c>
       <c r="D2" s="2">
+        <f>C2-B2</f>
         <v>7</v>
       </c>
       <c r="E2" s="5">
@@ -3005,18 +3628,19 @@
       </c>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D10" si="0">C3-B3</f>
         <v>17</v>
-      </c>
-      <c r="B3" s="5">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
       </c>
       <c r="E3" s="5">
         <v>3</v>
@@ -3052,28 +3676,29 @@
         <v>0</v>
       </c>
       <c r="P3" s="5">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="5">
         <v>0.3</v>
       </c>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
-        <v>13</v>
+      <c r="C4" s="2">
+        <v>25</v>
       </c>
       <c r="D4" s="2">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="E4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -3082,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I4" s="5">
         <v>90</v>
@@ -3113,18 +3738,19 @@
       </c>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2">
         <v>8</v>
       </c>
-      <c r="C5" s="5">
-        <v>14</v>
+      <c r="C5" s="2">
+        <v>39</v>
       </c>
       <c r="D5" s="2">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -3133,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
@@ -3167,18 +3793,19 @@
       </c>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5">
-        <v>19</v>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2">
+        <v>49</v>
       </c>
       <c r="D6" s="2">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -3221,18 +3848,19 @@
       </c>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5">
-        <v>24</v>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2">
+        <v>59</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -3275,18 +3903,19 @@
       </c>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="5">
-        <v>25</v>
-      </c>
-      <c r="C8" s="5">
-        <v>29</v>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2">
+        <v>69</v>
       </c>
       <c r="D8" s="2">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -3329,18 +3958,19 @@
       </c>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5">
-        <v>35</v>
-      </c>
-      <c r="C9" s="5">
-        <v>39</v>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2">
+        <v>79</v>
       </c>
       <c r="D9" s="2">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -3383,17 +4013,18 @@
       </c>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5">
-        <v>40</v>
-      </c>
-      <c r="C10" s="5">
-        <v>46</v>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2">
+        <v>79</v>
+      </c>
+      <c r="C10" s="2">
+        <v>86</v>
       </c>
       <c r="D10" s="2">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E10" s="5">
@@ -3437,7 +4068,7 @@
       </c>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3460,593 +4091,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="2">
-        <v>101</v>
-      </c>
-      <c r="F1" s="2">
-        <v>102</v>
-      </c>
-      <c r="G1" s="2">
-        <v>103</v>
-      </c>
-      <c r="H1" s="2">
-        <v>104</v>
-      </c>
-      <c r="I1" s="2">
-        <v>201</v>
-      </c>
-      <c r="J1" s="2">
-        <v>202</v>
-      </c>
-      <c r="K1" s="2">
-        <v>203</v>
-      </c>
-      <c r="L1" s="2">
-        <v>204</v>
-      </c>
-      <c r="M1" s="2">
-        <v>205</v>
-      </c>
-      <c r="N1" s="2">
-        <v>206</v>
-      </c>
-      <c r="O1" s="2">
-        <v>207</v>
-      </c>
-      <c r="P1" s="2">
-        <v>301</v>
-      </c>
-      <c r="Q1" s="6">
-        <v>401</v>
-      </c>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <f>C2-B2</f>
-        <v>7</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="2">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D10" si="0">C3-B3</f>
-        <v>17</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2500</v>
-      </c>
-      <c r="I3" s="5">
-        <v>350</v>
-      </c>
-      <c r="J3" s="5">
-        <v>36</v>
-      </c>
-      <c r="K3" s="5">
-        <v>80</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>90</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>600</v>
-      </c>
-      <c r="I4" s="5">
-        <v>90</v>
-      </c>
-      <c r="J4" s="5">
-        <v>8</v>
-      </c>
-      <c r="K4" s="5">
-        <v>18</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="2">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>39</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>2</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>61</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>48</v>
-      </c>
-      <c r="C7" s="2">
-        <v>59</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>67</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>58</v>
-      </c>
-      <c r="C8" s="2">
-        <v>69</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5">
-        <v>62</v>
-      </c>
-      <c r="O8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="2">
-        <v>68</v>
-      </c>
-      <c r="C9" s="2">
-        <v>79</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>5000</v>
-      </c>
-      <c r="P9" s="5">
-        <v>150</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="2">
-        <v>79</v>
-      </c>
-      <c r="C10" s="2">
-        <v>86</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R17"/>
@@ -4055,14 +4099,14 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4116,7 +4160,7 @@
       </c>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -4170,7 +4214,7 @@
       </c>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -4224,7 +4268,7 @@
       </c>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -4278,7 +4322,7 @@
       </c>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -4332,7 +4376,7 @@
       </c>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -4386,7 +4430,7 @@
       </c>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -4440,7 +4484,7 @@
       </c>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
@@ -4494,7 +4538,7 @@
       </c>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -4548,7 +4592,7 @@
       </c>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -4602,7 +4646,7 @@
       </c>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -4655,7 +4699,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -4708,7 +4752,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -4761,7 +4805,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
@@ -4814,10 +4858,10 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -4836,14 +4880,14 @@
       <selection activeCell="B2" sqref="B2:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4897,7 +4941,7 @@
       </c>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -4951,7 +4995,7 @@
       </c>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -5005,7 +5049,7 @@
       </c>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -5059,7 +5103,7 @@
       </c>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -5113,7 +5157,7 @@
       </c>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -5167,7 +5211,7 @@
       </c>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -5221,7 +5265,7 @@
       </c>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
@@ -5275,7 +5319,7 @@
       </c>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -5329,7 +5373,7 @@
       </c>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -5383,7 +5427,7 @@
       </c>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -5436,7 +5480,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -5489,7 +5533,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -5542,7 +5586,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
@@ -5595,10 +5639,10 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5607,77 +5651,77 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -5695,15 +5739,15 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5757,7 +5801,7 @@
       </c>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>37</v>
       </c>
@@ -5811,7 +5855,7 @@
       </c>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>58</v>
       </c>
@@ -5865,7 +5909,7 @@
       </c>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
@@ -5919,7 +5963,7 @@
       </c>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>59</v>
       </c>
@@ -5973,7 +6017,7 @@
       </c>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>60</v>
       </c>
@@ -6027,7 +6071,7 @@
       </c>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>49</v>
       </c>
@@ -6081,7 +6125,7 @@
       </c>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>64</v>
       </c>
@@ -6135,7 +6179,7 @@
       </c>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>65</v>
       </c>
@@ -6189,7 +6233,7 @@
       </c>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>66</v>
       </c>
@@ -6243,7 +6287,7 @@
       </c>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>67</v>
       </c>
@@ -6296,7 +6340,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>68</v>
       </c>
@@ -6349,7 +6393,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>69</v>
       </c>
@@ -6402,7 +6446,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>56</v>
       </c>
@@ -6455,10 +6499,10 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -6478,14 +6522,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -6539,7 +6583,7 @@
       </c>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -6593,7 +6637,7 @@
       </c>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -6647,7 +6691,7 @@
       </c>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -6701,7 +6745,7 @@
       </c>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -6755,7 +6799,7 @@
       </c>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -6809,7 +6853,7 @@
       </c>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -6863,7 +6907,7 @@
       </c>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
@@ -6917,7 +6961,7 @@
       </c>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -6971,7 +7015,7 @@
       </c>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -7025,7 +7069,7 @@
       </c>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -7078,7 +7122,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -7131,7 +7175,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -7184,7 +7228,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
@@ -7237,7 +7281,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" s="11">
         <v>1355</v>
       </c>
@@ -7254,7 +7298,7 @@
         <v>0.62962962962962965</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <v>4795</v>
       </c>
@@ -7283,7 +7327,7 @@
         <v>9.5330250000000003</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="11">
         <v>1782</v>
       </c>
@@ -7300,7 +7344,7 @@
         <v>0.32237037037037047</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="11">
         <v>3917</v>
       </c>
@@ -7317,13 +7361,13 @@
         <v>0.13599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20">
         <f>SUM(C16:C19)</f>
         <v>11849</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D21">
         <f>1838/7</f>
         <v>262.57142857142856</v>
@@ -7350,15 +7394,15 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -7412,7 +7456,7 @@
       </c>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -7474,7 +7518,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
@@ -7536,7 +7580,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -7598,7 +7642,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -7660,7 +7704,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -7722,7 +7766,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -7784,7 +7828,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -7846,7 +7890,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>65</v>
       </c>
@@ -7908,7 +7952,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
@@ -7970,7 +8014,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>67</v>
       </c>
@@ -8031,7 +8075,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
@@ -8092,7 +8136,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>69</v>
       </c>
@@ -8153,7 +8197,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
@@ -8214,7 +8258,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="11">
         <v>2670</v>
       </c>
@@ -8234,7 +8278,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <v>4795</v>
       </c>
@@ -8269,7 +8313,7 @@
         <v>26.247063163867086</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="11">
         <v>3653</v>
       </c>
@@ -8304,7 +8348,7 @@
         <v>2.2783908996412401</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="11">
         <v>2555</v>
       </c>
@@ -8340,13 +8384,13 @@
         <v>4.9977606830840093</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20">
         <f>SUM(C16:C19)</f>
         <v>13673</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D21">
         <f>1838/7</f>
         <v>262.57142857142856</v>
@@ -8364,13 +8408,13 @@
         <v>51.571428571428569</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J22">
         <f>2547/7</f>
         <v>363.85714285714283</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J23">
         <f>481/7</f>
         <v>68.714285714285708</v>
@@ -8393,14 +8437,14 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -8457,7 +8501,7 @@
       </c>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -8514,7 +8558,7 @@
       </c>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>86</v>
       </c>
@@ -8571,7 +8615,7 @@
       </c>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>87</v>
       </c>
@@ -8628,7 +8672,7 @@
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>88</v>
       </c>
@@ -8685,7 +8729,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
@@ -8742,7 +8786,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -8799,7 +8843,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -8831,14 +8875,14 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -8895,7 +8939,7 @@
       </c>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -8952,7 +8996,7 @@
       </c>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>85</v>
       </c>
@@ -9009,7 +9053,7 @@
       </c>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>84</v>
       </c>
@@ -9066,7 +9110,7 @@
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>83</v>
       </c>
@@ -9123,7 +9167,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>82</v>
       </c>
@@ -9180,7 +9224,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -9237,7 +9281,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -9269,14 +9313,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -9333,7 +9377,7 @@
       </c>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -9390,7 +9434,7 @@
       </c>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>81</v>
       </c>
@@ -9447,7 +9491,7 @@
       </c>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
@@ -9504,7 +9548,7 @@
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -9561,7 +9605,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -9589,18 +9633,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -9657,7 +9701,7 @@
       </c>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -9714,7 +9758,7 @@
       </c>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>78</v>
       </c>
@@ -9771,7 +9815,7 @@
       </c>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
@@ -9828,7 +9872,7 @@
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -9885,7 +9929,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -9915,7 +9959,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9929,15 +9973,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9948,7 +9992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -9959,7 +10003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>102</v>
       </c>
@@ -9970,7 +10014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>103</v>
       </c>
@@ -9981,7 +10025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>104</v>
       </c>
@@ -9992,7 +10036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>201</v>
       </c>
@@ -10003,7 +10047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>202</v>
       </c>
@@ -10014,7 +10058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>203</v>
       </c>
@@ -10025,7 +10069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>204</v>
       </c>
@@ -10036,7 +10080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>205</v>
       </c>
@@ -10047,7 +10091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>206</v>
       </c>
@@ -10058,7 +10102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>207</v>
       </c>
@@ -10069,7 +10113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>301</v>
       </c>
@@ -10080,7 +10124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>401</v>
       </c>
@@ -10104,14 +10148,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -10165,7 +10209,7 @@
       </c>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -10219,7 +10263,7 @@
       </c>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -10273,7 +10317,7 @@
       </c>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -10327,7 +10371,7 @@
       </c>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -10381,7 +10425,7 @@
       </c>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -10435,7 +10479,7 @@
       </c>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -10489,7 +10533,7 @@
       </c>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -10543,7 +10587,7 @@
       </c>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -10597,7 +10641,7 @@
       </c>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -10651,7 +10695,7 @@
       </c>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -10678,17 +10722,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -10702,7 +10746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>77</v>
       </c>
@@ -10716,7 +10760,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>74</v>
       </c>
@@ -10730,7 +10774,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
@@ -10744,7 +10788,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>76</v>
       </c>
@@ -10758,7 +10802,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>36</v>
       </c>
@@ -10772,7 +10816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>73</v>
       </c>
@@ -10786,7 +10830,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>71</v>
       </c>
@@ -10800,12 +10844,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
